--- a/POMIARY 2 PROJEKT.xlsx
+++ b/POMIARY 2 PROJEKT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48503\Desktop\cpp\4-th sem - DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67688935-7D3E-4140-8067-6020BE4D2807}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65583631-A2A9-4840-92E5-7BB80394828B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIX" sheetId="1" r:id="rId1"/>
+    <sheet name="LIST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>ILOSC WIERZCHOLKOW</t>
   </si>
@@ -40,6 +41,21 @@
   </si>
   <si>
     <t>ŚREDNIA:</t>
+  </si>
+  <si>
+    <t>nanosekundy</t>
+  </si>
+  <si>
+    <t>mikrosekundy</t>
+  </si>
+  <si>
+    <t>milisekundy</t>
+  </si>
+  <si>
+    <t>MACIERZ</t>
+  </si>
+  <si>
+    <t>LISTA</t>
   </si>
 </sst>
 </file>
@@ -55,7 +71,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +96,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -93,14 +121,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -381,115 +419,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L117" sqref="L117"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:V112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="5">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>50</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>100</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
         <v>500</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
         <v>1000</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>25</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>75</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>75</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>25</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>50</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>75</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>100</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>25</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>50</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>75</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>100</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>25</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>50</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>75</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>100</v>
       </c>
     </row>
@@ -6321,7 +6360,7 @@
         <v>21241400</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>5500</v>
       </c>
@@ -6383,7 +6422,7 @@
         <v>20705200</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>5700</v>
       </c>
@@ -6445,7 +6484,7 @@
         <v>36007600</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>5300</v>
       </c>
@@ -6507,7 +6546,7 @@
         <v>20130200</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>44100</v>
       </c>
@@ -6569,7 +6608,7 @@
         <v>22944700</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>6100</v>
       </c>
@@ -6631,7 +6670,7 @@
         <v>21999400</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>9400</v>
       </c>
@@ -6693,93 +6732,569 @@
         <v>28885500</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <f>AVERAGE(B3:B102)</f>
         <v>5724</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <f t="shared" ref="C103:U103" si="0">AVERAGE(C3:C102)</f>
         <v>6088</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <f t="shared" si="0"/>
         <v>5710</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <f t="shared" si="0"/>
         <v>7930</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="3">
         <f t="shared" si="0"/>
         <v>59229</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="3">
         <f t="shared" si="0"/>
         <v>59264</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="3">
         <f t="shared" si="0"/>
         <v>78216</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="3">
         <f t="shared" si="0"/>
         <v>75646</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="3">
         <f t="shared" si="0"/>
         <v>194378</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K103" s="3">
         <f t="shared" si="0"/>
         <v>282349</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L103" s="3">
         <f t="shared" si="0"/>
         <v>238045</v>
       </c>
-      <c r="M103" s="4">
+      <c r="M103" s="3">
         <f t="shared" si="0"/>
         <v>268161</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="3">
         <f t="shared" si="0"/>
         <v>5652840</v>
       </c>
-      <c r="O103" s="4">
+      <c r="O103" s="3">
         <f t="shared" si="0"/>
         <v>6131235</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="3">
         <f t="shared" si="0"/>
         <v>5665695</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="Q103" s="3">
         <f t="shared" si="0"/>
         <v>6051254</v>
       </c>
-      <c r="R103" s="4">
+      <c r="R103" s="3">
         <f t="shared" si="0"/>
         <v>22659104</v>
       </c>
-      <c r="S103" s="4">
+      <c r="S103" s="3">
         <f t="shared" si="0"/>
         <v>22371098</v>
       </c>
-      <c r="T103" s="4">
+      <c r="T103" s="3">
         <f t="shared" si="0"/>
         <v>22706849</v>
       </c>
-      <c r="U103" s="4">
+      <c r="U103" s="3">
         <f t="shared" si="0"/>
         <v>23549993</v>
       </c>
+      <c r="V103" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <f>B103/1000</f>
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" ref="C104:U105" si="1">C103/1000</f>
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="1"/>
+        <v>5.71</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="1"/>
+        <v>7.93</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="1"/>
+        <v>59.228999999999999</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="1"/>
+        <v>59.264000000000003</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="1"/>
+        <v>78.215999999999994</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="1"/>
+        <v>75.646000000000001</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="1"/>
+        <v>194.37799999999999</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="1"/>
+        <v>282.34899999999999</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="1"/>
+        <v>238.04499999999999</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="1"/>
+        <v>268.161</v>
+      </c>
+      <c r="N104" s="3">
+        <f t="shared" si="1"/>
+        <v>5652.84</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="1"/>
+        <v>6131.2349999999997</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" si="1"/>
+        <v>5665.6949999999997</v>
+      </c>
+      <c r="Q104" s="3">
+        <f t="shared" si="1"/>
+        <v>6051.2539999999999</v>
+      </c>
+      <c r="R104" s="3">
+        <f t="shared" si="1"/>
+        <v>22659.103999999999</v>
+      </c>
+      <c r="S104" s="3">
+        <f t="shared" si="1"/>
+        <v>22371.098000000002</v>
+      </c>
+      <c r="T104" s="3">
+        <f t="shared" si="1"/>
+        <v>22706.848999999998</v>
+      </c>
+      <c r="U104" s="3">
+        <f t="shared" si="1"/>
+        <v>23549.992999999999</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <f>B104/1000</f>
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9228999999999997E-2</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9264000000000004E-2</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8215999999999994E-2</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5646000000000005E-2</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.194378</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.28234900000000002</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23804499999999998</v>
+      </c>
+      <c r="M105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26816099999999998</v>
+      </c>
+      <c r="N105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6528400000000003</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="1"/>
+        <v>6.1312349999999993</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6656949999999995</v>
+      </c>
+      <c r="Q105" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0512540000000001</v>
+      </c>
+      <c r="R105" s="3">
+        <f t="shared" si="1"/>
+        <v>22.659103999999999</v>
+      </c>
+      <c r="S105" s="3">
+        <f t="shared" si="1"/>
+        <v>22.371098000000003</v>
+      </c>
+      <c r="T105" s="3">
+        <f t="shared" si="1"/>
+        <v>22.706848999999998</v>
+      </c>
+      <c r="U105" s="3">
+        <f t="shared" si="1"/>
+        <v>23.549992999999997</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="5">
+        <v>10</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <v>50</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5">
+        <v>100</v>
+      </c>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5">
+        <v>500</v>
+      </c>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2">
+        <v>25</v>
+      </c>
+      <c r="C109" s="2">
+        <v>50</v>
+      </c>
+      <c r="D109" s="2">
+        <v>75</v>
+      </c>
+      <c r="E109" s="2">
+        <v>100</v>
+      </c>
+      <c r="F109" s="2">
+        <v>25</v>
+      </c>
+      <c r="G109" s="2">
+        <v>50</v>
+      </c>
+      <c r="H109" s="2">
+        <v>75</v>
+      </c>
+      <c r="I109" s="2">
+        <v>100</v>
+      </c>
+      <c r="J109" s="2">
+        <v>25</v>
+      </c>
+      <c r="K109" s="2">
+        <v>50</v>
+      </c>
+      <c r="L109" s="2">
+        <v>75</v>
+      </c>
+      <c r="M109" s="2">
+        <v>100</v>
+      </c>
+      <c r="N109" s="2">
+        <v>25</v>
+      </c>
+      <c r="O109" s="2">
+        <v>50</v>
+      </c>
+      <c r="P109" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>100</v>
+      </c>
+      <c r="R109" s="2">
+        <v>25</v>
+      </c>
+      <c r="S109" s="2">
+        <v>50</v>
+      </c>
+      <c r="T109" s="2">
+        <v>75</v>
+      </c>
+      <c r="U109" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5724</v>
+      </c>
+      <c r="C110" s="3">
+        <v>6088</v>
+      </c>
+      <c r="D110" s="3">
+        <v>5710</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7930</v>
+      </c>
+      <c r="F110" s="3">
+        <v>59229</v>
+      </c>
+      <c r="G110" s="3">
+        <v>59264</v>
+      </c>
+      <c r="H110" s="3">
+        <v>78216</v>
+      </c>
+      <c r="I110" s="3">
+        <v>75646</v>
+      </c>
+      <c r="J110" s="3">
+        <v>194378</v>
+      </c>
+      <c r="K110" s="3">
+        <v>282349</v>
+      </c>
+      <c r="L110" s="3">
+        <v>238045</v>
+      </c>
+      <c r="M110" s="3">
+        <v>268161</v>
+      </c>
+      <c r="N110" s="3">
+        <v>5652840</v>
+      </c>
+      <c r="O110" s="3">
+        <v>6131235</v>
+      </c>
+      <c r="P110" s="3">
+        <v>5665695</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>6051254</v>
+      </c>
+      <c r="R110" s="3">
+        <v>22659104</v>
+      </c>
+      <c r="S110" s="3">
+        <v>22371098</v>
+      </c>
+      <c r="T110" s="3">
+        <v>22706849</v>
+      </c>
+      <c r="U110" s="3">
+        <v>23549993</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="C111" s="3">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="E111" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="F111" s="3">
+        <v>59.228999999999999</v>
+      </c>
+      <c r="G111" s="3">
+        <v>59.264000000000003</v>
+      </c>
+      <c r="H111" s="3">
+        <v>78.215999999999994</v>
+      </c>
+      <c r="I111" s="3">
+        <v>75.646000000000001</v>
+      </c>
+      <c r="J111" s="3">
+        <v>194.37799999999999</v>
+      </c>
+      <c r="K111" s="3">
+        <v>282.34899999999999</v>
+      </c>
+      <c r="L111" s="3">
+        <v>238.04499999999999</v>
+      </c>
+      <c r="M111" s="3">
+        <v>268.161</v>
+      </c>
+      <c r="N111" s="3">
+        <v>5652.84</v>
+      </c>
+      <c r="O111" s="3">
+        <v>6131.2349999999997</v>
+      </c>
+      <c r="P111" s="3">
+        <v>5665.6949999999997</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>6051.2539999999999</v>
+      </c>
+      <c r="R111" s="3">
+        <v>22659.103999999999</v>
+      </c>
+      <c r="S111" s="3">
+        <v>22371.098000000002</v>
+      </c>
+      <c r="T111" s="3">
+        <v>22706.848999999998</v>
+      </c>
+      <c r="U111" s="3">
+        <v>23549.992999999999</v>
+      </c>
+      <c r="V111" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="F112" s="3">
+        <v>5.9228999999999997E-2</v>
+      </c>
+      <c r="G112" s="3">
+        <v>5.9264000000000004E-2</v>
+      </c>
+      <c r="H112" s="3">
+        <v>7.8215999999999994E-2</v>
+      </c>
+      <c r="I112" s="3">
+        <v>7.5646000000000005E-2</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0.194378</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0.28234900000000002</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0.23804499999999998</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.26816099999999998</v>
+      </c>
+      <c r="N112" s="3">
+        <v>5.6528400000000003</v>
+      </c>
+      <c r="O112" s="3">
+        <v>6.1312349999999993</v>
+      </c>
+      <c r="P112" s="3">
+        <v>5.6656949999999995</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>6.0512540000000001</v>
+      </c>
+      <c r="R112" s="3">
+        <v>22.659103999999999</v>
+      </c>
+      <c r="S112" s="3">
+        <v>22.371098000000003</v>
+      </c>
+      <c r="T112" s="3">
+        <v>22.706848999999998</v>
+      </c>
+      <c r="U112" s="3">
+        <v>23.549992999999997</v>
+      </c>
+      <c r="V112" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -6789,4 +7304,7673 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06CFCF0-B8B3-4136-945A-C41943637878}">
+  <dimension ref="A1:W132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="O122" sqref="O122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
+        <v>100</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
+        <v>500</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100</v>
+      </c>
+      <c r="N2" s="2">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>100</v>
+      </c>
+      <c r="R2" s="2">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2">
+        <v>50</v>
+      </c>
+      <c r="T2" s="2">
+        <v>75</v>
+      </c>
+      <c r="U2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2200</v>
+      </c>
+      <c r="C3">
+        <v>16100</v>
+      </c>
+      <c r="D3">
+        <v>4700</v>
+      </c>
+      <c r="E3">
+        <v>5400</v>
+      </c>
+      <c r="F3">
+        <v>31100</v>
+      </c>
+      <c r="G3">
+        <v>47000</v>
+      </c>
+      <c r="H3">
+        <v>113000</v>
+      </c>
+      <c r="I3">
+        <v>293700</v>
+      </c>
+      <c r="J3">
+        <v>130400</v>
+      </c>
+      <c r="K3">
+        <v>214200</v>
+      </c>
+      <c r="L3">
+        <v>496500</v>
+      </c>
+      <c r="M3">
+        <v>514800</v>
+      </c>
+      <c r="N3">
+        <v>4117300</v>
+      </c>
+      <c r="O3">
+        <v>8815900</v>
+      </c>
+      <c r="P3">
+        <v>12042100</v>
+      </c>
+      <c r="Q3">
+        <v>28708000</v>
+      </c>
+      <c r="R3">
+        <v>23383500</v>
+      </c>
+      <c r="S3">
+        <v>46148800</v>
+      </c>
+      <c r="T3">
+        <v>95809600</v>
+      </c>
+      <c r="U3">
+        <v>105832500</v>
+      </c>
+      <c r="W3">
+        <v>89098700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1900</v>
+      </c>
+      <c r="C4">
+        <v>4100</v>
+      </c>
+      <c r="D4">
+        <v>4800</v>
+      </c>
+      <c r="E4">
+        <v>7200</v>
+      </c>
+      <c r="F4">
+        <v>33600</v>
+      </c>
+      <c r="G4">
+        <v>36800</v>
+      </c>
+      <c r="H4">
+        <v>87700</v>
+      </c>
+      <c r="I4">
+        <v>142400</v>
+      </c>
+      <c r="J4">
+        <v>124000</v>
+      </c>
+      <c r="K4">
+        <v>352400</v>
+      </c>
+      <c r="L4">
+        <v>435600</v>
+      </c>
+      <c r="M4">
+        <v>437300</v>
+      </c>
+      <c r="N4">
+        <v>3496500</v>
+      </c>
+      <c r="O4">
+        <v>11436000</v>
+      </c>
+      <c r="P4">
+        <v>12275900</v>
+      </c>
+      <c r="Q4">
+        <v>23453700</v>
+      </c>
+      <c r="R4">
+        <v>29616100</v>
+      </c>
+      <c r="S4">
+        <v>46316700</v>
+      </c>
+      <c r="T4">
+        <v>71485000</v>
+      </c>
+      <c r="U4">
+        <v>93803500</v>
+      </c>
+      <c r="W4">
+        <v>90578200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2400</v>
+      </c>
+      <c r="C5">
+        <v>8600</v>
+      </c>
+      <c r="D5">
+        <v>4800</v>
+      </c>
+      <c r="E5">
+        <v>6400</v>
+      </c>
+      <c r="F5">
+        <v>31100</v>
+      </c>
+      <c r="G5">
+        <v>47100</v>
+      </c>
+      <c r="H5">
+        <v>83700</v>
+      </c>
+      <c r="I5">
+        <v>180500</v>
+      </c>
+      <c r="J5">
+        <v>255200</v>
+      </c>
+      <c r="K5">
+        <v>194300</v>
+      </c>
+      <c r="L5">
+        <v>295400</v>
+      </c>
+      <c r="M5">
+        <v>304100</v>
+      </c>
+      <c r="N5">
+        <v>3205300</v>
+      </c>
+      <c r="O5">
+        <v>11132200</v>
+      </c>
+      <c r="P5">
+        <v>14690700</v>
+      </c>
+      <c r="Q5">
+        <v>19406500</v>
+      </c>
+      <c r="R5">
+        <v>22217000</v>
+      </c>
+      <c r="S5">
+        <v>49145200</v>
+      </c>
+      <c r="T5">
+        <v>67773800</v>
+      </c>
+      <c r="U5">
+        <v>99697700</v>
+      </c>
+      <c r="W5">
+        <v>90395900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2900</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>5500</v>
+      </c>
+      <c r="E6">
+        <v>5500</v>
+      </c>
+      <c r="F6">
+        <v>32900</v>
+      </c>
+      <c r="G6">
+        <v>38000</v>
+      </c>
+      <c r="H6">
+        <v>78800</v>
+      </c>
+      <c r="I6">
+        <v>78400</v>
+      </c>
+      <c r="J6">
+        <v>145900</v>
+      </c>
+      <c r="K6">
+        <v>134900</v>
+      </c>
+      <c r="L6">
+        <v>266500</v>
+      </c>
+      <c r="M6">
+        <v>560900</v>
+      </c>
+      <c r="N6">
+        <v>2295400</v>
+      </c>
+      <c r="O6">
+        <v>11070400</v>
+      </c>
+      <c r="P6">
+        <v>13201700</v>
+      </c>
+      <c r="Q6">
+        <v>21628500</v>
+      </c>
+      <c r="R6">
+        <v>23258900</v>
+      </c>
+      <c r="S6">
+        <v>53741900</v>
+      </c>
+      <c r="T6">
+        <v>69844800</v>
+      </c>
+      <c r="U6">
+        <v>97727200</v>
+      </c>
+      <c r="W6">
+        <v>91160100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2100</v>
+      </c>
+      <c r="C7">
+        <v>5600</v>
+      </c>
+      <c r="D7">
+        <v>5500</v>
+      </c>
+      <c r="E7">
+        <v>9700</v>
+      </c>
+      <c r="F7">
+        <v>27100</v>
+      </c>
+      <c r="G7">
+        <v>49500</v>
+      </c>
+      <c r="H7">
+        <v>73600</v>
+      </c>
+      <c r="I7">
+        <v>94100</v>
+      </c>
+      <c r="J7">
+        <v>103100</v>
+      </c>
+      <c r="K7">
+        <v>157100</v>
+      </c>
+      <c r="L7">
+        <v>327500</v>
+      </c>
+      <c r="M7">
+        <v>255300</v>
+      </c>
+      <c r="N7">
+        <v>2600600</v>
+      </c>
+      <c r="O7">
+        <v>8963300</v>
+      </c>
+      <c r="P7">
+        <v>14979900</v>
+      </c>
+      <c r="Q7">
+        <v>22064100</v>
+      </c>
+      <c r="R7">
+        <v>24550400</v>
+      </c>
+      <c r="S7">
+        <v>48554700</v>
+      </c>
+      <c r="T7">
+        <v>70270100</v>
+      </c>
+      <c r="U7">
+        <v>95191800</v>
+      </c>
+      <c r="W7">
+        <v>109677700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2600</v>
+      </c>
+      <c r="C8">
+        <v>4900</v>
+      </c>
+      <c r="D8">
+        <v>5300</v>
+      </c>
+      <c r="E8">
+        <v>7800</v>
+      </c>
+      <c r="F8">
+        <v>32100</v>
+      </c>
+      <c r="G8">
+        <v>37300</v>
+      </c>
+      <c r="H8">
+        <v>84700</v>
+      </c>
+      <c r="I8">
+        <v>87100</v>
+      </c>
+      <c r="J8">
+        <v>307200</v>
+      </c>
+      <c r="K8">
+        <v>172600</v>
+      </c>
+      <c r="L8">
+        <v>191300</v>
+      </c>
+      <c r="M8">
+        <v>270900</v>
+      </c>
+      <c r="N8">
+        <v>2912200</v>
+      </c>
+      <c r="O8">
+        <v>7999700</v>
+      </c>
+      <c r="P8">
+        <v>44445900</v>
+      </c>
+      <c r="Q8">
+        <v>24428100</v>
+      </c>
+      <c r="R8">
+        <v>22718200</v>
+      </c>
+      <c r="S8">
+        <v>44853100</v>
+      </c>
+      <c r="T8">
+        <v>76502500</v>
+      </c>
+      <c r="U8">
+        <v>96272100</v>
+      </c>
+      <c r="W8">
+        <v>88547400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3200</v>
+      </c>
+      <c r="C9">
+        <v>4800</v>
+      </c>
+      <c r="D9">
+        <v>4800</v>
+      </c>
+      <c r="E9">
+        <v>4400</v>
+      </c>
+      <c r="F9">
+        <v>33000</v>
+      </c>
+      <c r="G9">
+        <v>37700</v>
+      </c>
+      <c r="H9">
+        <v>64800</v>
+      </c>
+      <c r="I9">
+        <v>98000</v>
+      </c>
+      <c r="J9">
+        <v>111400</v>
+      </c>
+      <c r="K9">
+        <v>189000</v>
+      </c>
+      <c r="L9">
+        <v>182800</v>
+      </c>
+      <c r="M9">
+        <v>308100</v>
+      </c>
+      <c r="N9">
+        <v>2594100</v>
+      </c>
+      <c r="O9">
+        <v>9853600</v>
+      </c>
+      <c r="P9">
+        <v>18629900</v>
+      </c>
+      <c r="Q9">
+        <v>32121500</v>
+      </c>
+      <c r="R9">
+        <v>33064900</v>
+      </c>
+      <c r="S9">
+        <v>51090000</v>
+      </c>
+      <c r="T9">
+        <v>69091500</v>
+      </c>
+      <c r="U9">
+        <v>104135200</v>
+      </c>
+      <c r="W9">
+        <v>91299200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3100</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10">
+        <v>4800</v>
+      </c>
+      <c r="E10">
+        <v>8900</v>
+      </c>
+      <c r="F10">
+        <v>18500</v>
+      </c>
+      <c r="G10">
+        <v>38400</v>
+      </c>
+      <c r="H10">
+        <v>70400</v>
+      </c>
+      <c r="I10">
+        <v>84500</v>
+      </c>
+      <c r="J10">
+        <v>100200</v>
+      </c>
+      <c r="K10">
+        <v>134800</v>
+      </c>
+      <c r="L10">
+        <v>264100</v>
+      </c>
+      <c r="M10">
+        <v>251500</v>
+      </c>
+      <c r="N10">
+        <v>3061600</v>
+      </c>
+      <c r="O10">
+        <v>9918300</v>
+      </c>
+      <c r="P10">
+        <v>13427700</v>
+      </c>
+      <c r="Q10">
+        <v>25771500</v>
+      </c>
+      <c r="R10">
+        <v>24003200</v>
+      </c>
+      <c r="S10">
+        <v>45197400</v>
+      </c>
+      <c r="T10">
+        <v>92150300</v>
+      </c>
+      <c r="U10">
+        <v>90856400</v>
+      </c>
+      <c r="W10">
+        <v>91512100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2600</v>
+      </c>
+      <c r="C11">
+        <v>5100</v>
+      </c>
+      <c r="D11">
+        <v>6200</v>
+      </c>
+      <c r="E11">
+        <v>6300</v>
+      </c>
+      <c r="F11">
+        <v>32700</v>
+      </c>
+      <c r="G11">
+        <v>36500</v>
+      </c>
+      <c r="H11">
+        <v>73800</v>
+      </c>
+      <c r="I11">
+        <v>86500</v>
+      </c>
+      <c r="J11">
+        <v>162100</v>
+      </c>
+      <c r="K11">
+        <v>205400</v>
+      </c>
+      <c r="L11">
+        <v>183200</v>
+      </c>
+      <c r="M11">
+        <v>262300</v>
+      </c>
+      <c r="N11">
+        <v>3223200</v>
+      </c>
+      <c r="O11">
+        <v>7774100</v>
+      </c>
+      <c r="P11">
+        <v>13204100</v>
+      </c>
+      <c r="Q11">
+        <v>26504400</v>
+      </c>
+      <c r="R11">
+        <v>19526000</v>
+      </c>
+      <c r="S11">
+        <v>47030200</v>
+      </c>
+      <c r="T11">
+        <v>75381400</v>
+      </c>
+      <c r="U11">
+        <v>102877900</v>
+      </c>
+      <c r="W11">
+        <v>89198100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2300</v>
+      </c>
+      <c r="C12">
+        <v>5300</v>
+      </c>
+      <c r="D12">
+        <v>7300</v>
+      </c>
+      <c r="E12">
+        <v>10100</v>
+      </c>
+      <c r="F12">
+        <v>25200</v>
+      </c>
+      <c r="G12">
+        <v>37400</v>
+      </c>
+      <c r="H12">
+        <v>69100</v>
+      </c>
+      <c r="I12">
+        <v>89800</v>
+      </c>
+      <c r="J12">
+        <v>116700</v>
+      </c>
+      <c r="K12">
+        <v>175300</v>
+      </c>
+      <c r="L12">
+        <v>320800</v>
+      </c>
+      <c r="M12">
+        <v>364800</v>
+      </c>
+      <c r="N12">
+        <v>3186200</v>
+      </c>
+      <c r="O12">
+        <v>7698500</v>
+      </c>
+      <c r="P12">
+        <v>13836600</v>
+      </c>
+      <c r="Q12">
+        <v>22423900</v>
+      </c>
+      <c r="R12">
+        <v>21949600</v>
+      </c>
+      <c r="S12">
+        <v>47441900</v>
+      </c>
+      <c r="T12">
+        <v>72765700</v>
+      </c>
+      <c r="U12">
+        <v>96189200</v>
+      </c>
+      <c r="W12">
+        <v>164760100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3400</v>
+      </c>
+      <c r="C13">
+        <v>8100</v>
+      </c>
+      <c r="D13">
+        <v>5200</v>
+      </c>
+      <c r="E13">
+        <v>4500</v>
+      </c>
+      <c r="F13">
+        <v>33500</v>
+      </c>
+      <c r="G13">
+        <v>37900</v>
+      </c>
+      <c r="H13">
+        <v>109500</v>
+      </c>
+      <c r="I13">
+        <v>155700</v>
+      </c>
+      <c r="J13">
+        <v>273600</v>
+      </c>
+      <c r="K13">
+        <v>132300</v>
+      </c>
+      <c r="L13">
+        <v>252600</v>
+      </c>
+      <c r="M13">
+        <v>381600</v>
+      </c>
+      <c r="N13">
+        <v>7417900</v>
+      </c>
+      <c r="O13">
+        <v>8014800</v>
+      </c>
+      <c r="P13">
+        <v>13610500</v>
+      </c>
+      <c r="Q13">
+        <v>44710100</v>
+      </c>
+      <c r="R13">
+        <v>21601400</v>
+      </c>
+      <c r="S13">
+        <v>75731200</v>
+      </c>
+      <c r="T13">
+        <v>79746200</v>
+      </c>
+      <c r="U13">
+        <v>92224200</v>
+      </c>
+      <c r="W13">
+        <v>97957600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>4500</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14">
+        <v>5100</v>
+      </c>
+      <c r="F14">
+        <v>24200</v>
+      </c>
+      <c r="G14">
+        <v>40300</v>
+      </c>
+      <c r="H14">
+        <v>49500</v>
+      </c>
+      <c r="I14">
+        <v>797600</v>
+      </c>
+      <c r="J14">
+        <v>116600</v>
+      </c>
+      <c r="K14">
+        <v>205000</v>
+      </c>
+      <c r="L14">
+        <v>462300</v>
+      </c>
+      <c r="M14">
+        <v>247300</v>
+      </c>
+      <c r="N14">
+        <v>6636400</v>
+      </c>
+      <c r="O14">
+        <v>11864500</v>
+      </c>
+      <c r="P14">
+        <v>15128900</v>
+      </c>
+      <c r="Q14">
+        <v>26419400</v>
+      </c>
+      <c r="R14">
+        <v>22409700</v>
+      </c>
+      <c r="S14">
+        <v>49281800</v>
+      </c>
+      <c r="T14">
+        <v>76322100</v>
+      </c>
+      <c r="U14">
+        <v>91815700</v>
+      </c>
+      <c r="W14">
+        <v>89781800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15">
+        <v>4600</v>
+      </c>
+      <c r="D15">
+        <v>6500</v>
+      </c>
+      <c r="E15">
+        <v>5200</v>
+      </c>
+      <c r="F15">
+        <v>31200</v>
+      </c>
+      <c r="G15">
+        <v>35300</v>
+      </c>
+      <c r="H15">
+        <v>51900</v>
+      </c>
+      <c r="I15">
+        <v>104800</v>
+      </c>
+      <c r="J15">
+        <v>103700</v>
+      </c>
+      <c r="K15">
+        <v>185900</v>
+      </c>
+      <c r="L15">
+        <v>330700</v>
+      </c>
+      <c r="M15">
+        <v>251700</v>
+      </c>
+      <c r="N15">
+        <v>4821200</v>
+      </c>
+      <c r="O15">
+        <v>7741500</v>
+      </c>
+      <c r="P15">
+        <v>13418800</v>
+      </c>
+      <c r="Q15">
+        <v>22903500</v>
+      </c>
+      <c r="R15">
+        <v>22617700</v>
+      </c>
+      <c r="S15">
+        <v>44125200</v>
+      </c>
+      <c r="T15">
+        <v>83129100</v>
+      </c>
+      <c r="U15">
+        <v>106808100</v>
+      </c>
+      <c r="W15">
+        <v>91857600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16">
+        <v>5700</v>
+      </c>
+      <c r="D16">
+        <v>4900</v>
+      </c>
+      <c r="E16">
+        <v>4200</v>
+      </c>
+      <c r="F16">
+        <v>45300</v>
+      </c>
+      <c r="G16">
+        <v>37600</v>
+      </c>
+      <c r="H16">
+        <v>54700</v>
+      </c>
+      <c r="I16">
+        <v>100800</v>
+      </c>
+      <c r="J16">
+        <v>110500</v>
+      </c>
+      <c r="K16">
+        <v>173400</v>
+      </c>
+      <c r="L16">
+        <v>418100</v>
+      </c>
+      <c r="M16">
+        <v>255800</v>
+      </c>
+      <c r="N16">
+        <v>4403800</v>
+      </c>
+      <c r="O16">
+        <v>7596100</v>
+      </c>
+      <c r="P16">
+        <v>15122300</v>
+      </c>
+      <c r="Q16">
+        <v>25713900</v>
+      </c>
+      <c r="R16">
+        <v>22777500</v>
+      </c>
+      <c r="S16">
+        <v>51969900</v>
+      </c>
+      <c r="T16">
+        <v>68924100</v>
+      </c>
+      <c r="U16">
+        <v>112328800</v>
+      </c>
+      <c r="W16">
+        <v>88434500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2300</v>
+      </c>
+      <c r="C17">
+        <v>4300</v>
+      </c>
+      <c r="D17">
+        <v>4700</v>
+      </c>
+      <c r="E17">
+        <v>5400</v>
+      </c>
+      <c r="F17">
+        <v>39900</v>
+      </c>
+      <c r="G17">
+        <v>51900</v>
+      </c>
+      <c r="H17">
+        <v>58700</v>
+      </c>
+      <c r="I17">
+        <v>104600</v>
+      </c>
+      <c r="J17">
+        <v>105200</v>
+      </c>
+      <c r="K17">
+        <v>184100</v>
+      </c>
+      <c r="L17">
+        <v>3288800</v>
+      </c>
+      <c r="M17">
+        <v>241400</v>
+      </c>
+      <c r="N17">
+        <v>4561300</v>
+      </c>
+      <c r="O17">
+        <v>7846700</v>
+      </c>
+      <c r="P17">
+        <v>15367800</v>
+      </c>
+      <c r="Q17">
+        <v>27815600</v>
+      </c>
+      <c r="R17">
+        <v>22255900</v>
+      </c>
+      <c r="S17">
+        <v>52394900</v>
+      </c>
+      <c r="T17">
+        <v>81339300</v>
+      </c>
+      <c r="U17">
+        <v>90565800</v>
+      </c>
+      <c r="W17">
+        <v>90999200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2100</v>
+      </c>
+      <c r="C18">
+        <v>4100</v>
+      </c>
+      <c r="D18">
+        <v>6000</v>
+      </c>
+      <c r="E18">
+        <v>4200</v>
+      </c>
+      <c r="F18">
+        <v>33300</v>
+      </c>
+      <c r="G18">
+        <v>58400</v>
+      </c>
+      <c r="H18">
+        <v>105100</v>
+      </c>
+      <c r="I18">
+        <v>118700</v>
+      </c>
+      <c r="J18">
+        <v>163300</v>
+      </c>
+      <c r="K18">
+        <v>181100</v>
+      </c>
+      <c r="L18">
+        <v>366500</v>
+      </c>
+      <c r="M18">
+        <v>655800</v>
+      </c>
+      <c r="N18">
+        <v>6528600</v>
+      </c>
+      <c r="O18">
+        <v>9728100</v>
+      </c>
+      <c r="P18">
+        <v>13238300</v>
+      </c>
+      <c r="Q18">
+        <v>24343900</v>
+      </c>
+      <c r="R18">
+        <v>20357700</v>
+      </c>
+      <c r="S18">
+        <v>50076200</v>
+      </c>
+      <c r="T18">
+        <v>69345000</v>
+      </c>
+      <c r="U18">
+        <v>106816500</v>
+      </c>
+      <c r="W18">
+        <v>88116000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>4600</v>
+      </c>
+      <c r="D19">
+        <v>4900</v>
+      </c>
+      <c r="E19">
+        <v>6000</v>
+      </c>
+      <c r="F19">
+        <v>31600</v>
+      </c>
+      <c r="G19">
+        <v>55600</v>
+      </c>
+      <c r="H19">
+        <v>68200</v>
+      </c>
+      <c r="I19">
+        <v>84500</v>
+      </c>
+      <c r="J19">
+        <v>132600</v>
+      </c>
+      <c r="K19">
+        <v>159800</v>
+      </c>
+      <c r="L19">
+        <v>261900</v>
+      </c>
+      <c r="M19">
+        <v>248600</v>
+      </c>
+      <c r="N19">
+        <v>3217300</v>
+      </c>
+      <c r="O19">
+        <v>13629400</v>
+      </c>
+      <c r="P19">
+        <v>13792700</v>
+      </c>
+      <c r="Q19">
+        <v>23406700</v>
+      </c>
+      <c r="R19">
+        <v>23837900</v>
+      </c>
+      <c r="S19">
+        <v>44753800</v>
+      </c>
+      <c r="T19">
+        <v>76471500</v>
+      </c>
+      <c r="U19">
+        <v>107579200</v>
+      </c>
+      <c r="W19">
+        <v>104165500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3400</v>
+      </c>
+      <c r="C20">
+        <v>2700</v>
+      </c>
+      <c r="D20">
+        <v>4800</v>
+      </c>
+      <c r="E20">
+        <v>6300</v>
+      </c>
+      <c r="F20">
+        <v>41300</v>
+      </c>
+      <c r="G20">
+        <v>49000</v>
+      </c>
+      <c r="H20">
+        <v>74600</v>
+      </c>
+      <c r="I20">
+        <v>98900</v>
+      </c>
+      <c r="J20">
+        <v>139000</v>
+      </c>
+      <c r="K20">
+        <v>174000</v>
+      </c>
+      <c r="L20">
+        <v>1308800</v>
+      </c>
+      <c r="M20">
+        <v>376500</v>
+      </c>
+      <c r="N20">
+        <v>24905000</v>
+      </c>
+      <c r="O20">
+        <v>10012400</v>
+      </c>
+      <c r="P20">
+        <v>14023100</v>
+      </c>
+      <c r="Q20">
+        <v>18945300</v>
+      </c>
+      <c r="R20">
+        <v>22879300</v>
+      </c>
+      <c r="S20">
+        <v>43822100</v>
+      </c>
+      <c r="T20">
+        <v>67931000</v>
+      </c>
+      <c r="U20">
+        <v>109640800</v>
+      </c>
+      <c r="W20">
+        <v>91928900</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2200</v>
+      </c>
+      <c r="C21">
+        <v>7400</v>
+      </c>
+      <c r="D21">
+        <v>8400</v>
+      </c>
+      <c r="E21">
+        <v>4200</v>
+      </c>
+      <c r="F21">
+        <v>28800</v>
+      </c>
+      <c r="G21">
+        <v>42200</v>
+      </c>
+      <c r="H21">
+        <v>71400</v>
+      </c>
+      <c r="I21">
+        <v>113600</v>
+      </c>
+      <c r="J21">
+        <v>146800</v>
+      </c>
+      <c r="K21">
+        <v>164800</v>
+      </c>
+      <c r="L21">
+        <v>256600</v>
+      </c>
+      <c r="M21">
+        <v>337700</v>
+      </c>
+      <c r="N21">
+        <v>6321800</v>
+      </c>
+      <c r="O21">
+        <v>10580900</v>
+      </c>
+      <c r="P21">
+        <v>18015400</v>
+      </c>
+      <c r="Q21">
+        <v>22891300</v>
+      </c>
+      <c r="R21">
+        <v>20528900</v>
+      </c>
+      <c r="S21">
+        <v>51719100</v>
+      </c>
+      <c r="T21">
+        <v>68478700</v>
+      </c>
+      <c r="U21">
+        <v>96791600</v>
+      </c>
+      <c r="W21">
+        <v>91964700</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2200</v>
+      </c>
+      <c r="C22">
+        <v>2900</v>
+      </c>
+      <c r="D22">
+        <v>8500</v>
+      </c>
+      <c r="E22">
+        <v>5100</v>
+      </c>
+      <c r="F22">
+        <v>36800</v>
+      </c>
+      <c r="G22">
+        <v>41400</v>
+      </c>
+      <c r="H22">
+        <v>54300</v>
+      </c>
+      <c r="I22">
+        <v>98800</v>
+      </c>
+      <c r="J22">
+        <v>122500</v>
+      </c>
+      <c r="K22">
+        <v>163900</v>
+      </c>
+      <c r="L22">
+        <v>633000</v>
+      </c>
+      <c r="M22">
+        <v>251600</v>
+      </c>
+      <c r="N22">
+        <v>3705000</v>
+      </c>
+      <c r="O22">
+        <v>8141200</v>
+      </c>
+      <c r="P22">
+        <v>17913900</v>
+      </c>
+      <c r="Q22">
+        <v>21135700</v>
+      </c>
+      <c r="R22">
+        <v>24776300</v>
+      </c>
+      <c r="S22">
+        <v>44064500</v>
+      </c>
+      <c r="T22">
+        <v>69006900</v>
+      </c>
+      <c r="U22">
+        <v>90541900</v>
+      </c>
+      <c r="W22">
+        <v>89518200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2200</v>
+      </c>
+      <c r="C23">
+        <v>3500</v>
+      </c>
+      <c r="D23">
+        <v>6600</v>
+      </c>
+      <c r="E23">
+        <v>6200</v>
+      </c>
+      <c r="F23">
+        <v>30800</v>
+      </c>
+      <c r="G23">
+        <v>37200</v>
+      </c>
+      <c r="H23">
+        <v>63300</v>
+      </c>
+      <c r="I23">
+        <v>102400</v>
+      </c>
+      <c r="J23">
+        <v>108600</v>
+      </c>
+      <c r="K23">
+        <v>181300</v>
+      </c>
+      <c r="L23">
+        <v>203400</v>
+      </c>
+      <c r="M23">
+        <v>252600</v>
+      </c>
+      <c r="N23">
+        <v>5357500</v>
+      </c>
+      <c r="O23">
+        <v>7386300</v>
+      </c>
+      <c r="P23">
+        <v>13930400</v>
+      </c>
+      <c r="Q23">
+        <v>18894200</v>
+      </c>
+      <c r="R23">
+        <v>26017800</v>
+      </c>
+      <c r="S23">
+        <v>52247300</v>
+      </c>
+      <c r="T23">
+        <v>88681300</v>
+      </c>
+      <c r="U23">
+        <v>95458400</v>
+      </c>
+      <c r="W23">
+        <v>94845400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1900</v>
+      </c>
+      <c r="C24">
+        <v>4100</v>
+      </c>
+      <c r="D24">
+        <v>5700</v>
+      </c>
+      <c r="E24">
+        <v>4500</v>
+      </c>
+      <c r="F24">
+        <v>33000</v>
+      </c>
+      <c r="G24">
+        <v>36900</v>
+      </c>
+      <c r="H24">
+        <v>65600</v>
+      </c>
+      <c r="I24">
+        <v>139700</v>
+      </c>
+      <c r="J24">
+        <v>111100</v>
+      </c>
+      <c r="K24">
+        <v>200800</v>
+      </c>
+      <c r="L24">
+        <v>435500</v>
+      </c>
+      <c r="M24">
+        <v>354300</v>
+      </c>
+      <c r="N24">
+        <v>5262300</v>
+      </c>
+      <c r="O24">
+        <v>8310500</v>
+      </c>
+      <c r="P24">
+        <v>13200100</v>
+      </c>
+      <c r="Q24">
+        <v>45216300</v>
+      </c>
+      <c r="R24">
+        <v>23438500</v>
+      </c>
+      <c r="S24">
+        <v>56227800</v>
+      </c>
+      <c r="T24">
+        <v>80008000</v>
+      </c>
+      <c r="U24">
+        <v>93056200</v>
+      </c>
+      <c r="W24">
+        <v>101895100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3400</v>
+      </c>
+      <c r="C25">
+        <v>4300</v>
+      </c>
+      <c r="D25">
+        <v>5100</v>
+      </c>
+      <c r="E25">
+        <v>3700</v>
+      </c>
+      <c r="F25">
+        <v>28400</v>
+      </c>
+      <c r="G25">
+        <v>37400</v>
+      </c>
+      <c r="H25">
+        <v>82300</v>
+      </c>
+      <c r="I25">
+        <v>70800</v>
+      </c>
+      <c r="J25">
+        <v>105500</v>
+      </c>
+      <c r="K25">
+        <v>175200</v>
+      </c>
+      <c r="L25">
+        <v>244100</v>
+      </c>
+      <c r="M25">
+        <v>277200</v>
+      </c>
+      <c r="N25">
+        <v>5535800</v>
+      </c>
+      <c r="O25">
+        <v>8601000</v>
+      </c>
+      <c r="P25">
+        <v>25062600</v>
+      </c>
+      <c r="Q25">
+        <v>30712800</v>
+      </c>
+      <c r="R25">
+        <v>22383400</v>
+      </c>
+      <c r="S25">
+        <v>45444000</v>
+      </c>
+      <c r="T25">
+        <v>80512600</v>
+      </c>
+      <c r="U25">
+        <v>134134600</v>
+      </c>
+      <c r="W25">
+        <v>87823700</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2100</v>
+      </c>
+      <c r="C26">
+        <v>3200</v>
+      </c>
+      <c r="D26">
+        <v>7600</v>
+      </c>
+      <c r="E26">
+        <v>4300</v>
+      </c>
+      <c r="F26">
+        <v>40300</v>
+      </c>
+      <c r="G26">
+        <v>48300</v>
+      </c>
+      <c r="H26">
+        <v>76400</v>
+      </c>
+      <c r="I26">
+        <v>195700</v>
+      </c>
+      <c r="J26">
+        <v>145700</v>
+      </c>
+      <c r="K26">
+        <v>174100</v>
+      </c>
+      <c r="L26">
+        <v>331700</v>
+      </c>
+      <c r="M26">
+        <v>848300</v>
+      </c>
+      <c r="N26">
+        <v>3924400</v>
+      </c>
+      <c r="O26">
+        <v>8125000</v>
+      </c>
+      <c r="P26">
+        <v>18690100</v>
+      </c>
+      <c r="Q26">
+        <v>25530200</v>
+      </c>
+      <c r="R26">
+        <v>29048700</v>
+      </c>
+      <c r="S26">
+        <v>45031300</v>
+      </c>
+      <c r="T26">
+        <v>81108300</v>
+      </c>
+      <c r="U26">
+        <v>93792400</v>
+      </c>
+      <c r="W26">
+        <v>92394800</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2300</v>
+      </c>
+      <c r="C27">
+        <v>3500</v>
+      </c>
+      <c r="D27">
+        <v>9200</v>
+      </c>
+      <c r="E27">
+        <v>4300</v>
+      </c>
+      <c r="F27">
+        <v>32600</v>
+      </c>
+      <c r="G27">
+        <v>51000</v>
+      </c>
+      <c r="H27">
+        <v>96000</v>
+      </c>
+      <c r="I27">
+        <v>84200</v>
+      </c>
+      <c r="J27">
+        <v>145400</v>
+      </c>
+      <c r="K27">
+        <v>168200</v>
+      </c>
+      <c r="L27">
+        <v>181500</v>
+      </c>
+      <c r="M27">
+        <v>315700</v>
+      </c>
+      <c r="N27">
+        <v>9773700</v>
+      </c>
+      <c r="O27">
+        <v>6824000</v>
+      </c>
+      <c r="P27">
+        <v>17309600</v>
+      </c>
+      <c r="Q27">
+        <v>23705700</v>
+      </c>
+      <c r="R27">
+        <v>22754300</v>
+      </c>
+      <c r="S27">
+        <v>53410900</v>
+      </c>
+      <c r="T27">
+        <v>75842400</v>
+      </c>
+      <c r="U27">
+        <v>125284700</v>
+      </c>
+      <c r="W27">
+        <v>91770000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2300</v>
+      </c>
+      <c r="C28">
+        <v>4500</v>
+      </c>
+      <c r="D28">
+        <v>4800</v>
+      </c>
+      <c r="E28">
+        <v>5200</v>
+      </c>
+      <c r="F28">
+        <v>49300</v>
+      </c>
+      <c r="G28">
+        <v>50400</v>
+      </c>
+      <c r="H28">
+        <v>81200</v>
+      </c>
+      <c r="I28">
+        <v>172100</v>
+      </c>
+      <c r="J28">
+        <v>148600</v>
+      </c>
+      <c r="K28">
+        <v>227700</v>
+      </c>
+      <c r="L28">
+        <v>203400</v>
+      </c>
+      <c r="M28">
+        <v>331700</v>
+      </c>
+      <c r="N28">
+        <v>6246900</v>
+      </c>
+      <c r="O28">
+        <v>6539400</v>
+      </c>
+      <c r="P28">
+        <v>14570600</v>
+      </c>
+      <c r="Q28">
+        <v>25785900</v>
+      </c>
+      <c r="R28">
+        <v>22880700</v>
+      </c>
+      <c r="S28">
+        <v>48974100</v>
+      </c>
+      <c r="T28">
+        <v>74186600</v>
+      </c>
+      <c r="U28">
+        <v>105034200</v>
+      </c>
+      <c r="W28">
+        <v>88905000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3200</v>
+      </c>
+      <c r="C29">
+        <v>4200</v>
+      </c>
+      <c r="D29">
+        <v>8400</v>
+      </c>
+      <c r="E29">
+        <v>4300</v>
+      </c>
+      <c r="F29">
+        <v>33900</v>
+      </c>
+      <c r="G29">
+        <v>52100</v>
+      </c>
+      <c r="H29">
+        <v>73800</v>
+      </c>
+      <c r="I29">
+        <v>81300</v>
+      </c>
+      <c r="J29">
+        <v>107200</v>
+      </c>
+      <c r="K29">
+        <v>170300</v>
+      </c>
+      <c r="L29">
+        <v>450500</v>
+      </c>
+      <c r="M29">
+        <v>367300</v>
+      </c>
+      <c r="N29">
+        <v>3453300</v>
+      </c>
+      <c r="O29">
+        <v>6869200</v>
+      </c>
+      <c r="P29">
+        <v>13744600</v>
+      </c>
+      <c r="Q29">
+        <v>23561700</v>
+      </c>
+      <c r="R29">
+        <v>22659200</v>
+      </c>
+      <c r="S29">
+        <v>44572500</v>
+      </c>
+      <c r="T29">
+        <v>70848000</v>
+      </c>
+      <c r="U29">
+        <v>111296900</v>
+      </c>
+      <c r="W29">
+        <v>97135900</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2600</v>
+      </c>
+      <c r="C30">
+        <v>3900</v>
+      </c>
+      <c r="D30">
+        <v>5400</v>
+      </c>
+      <c r="E30">
+        <v>4000</v>
+      </c>
+      <c r="F30">
+        <v>35300</v>
+      </c>
+      <c r="G30">
+        <v>62500</v>
+      </c>
+      <c r="H30">
+        <v>70500</v>
+      </c>
+      <c r="I30">
+        <v>223100</v>
+      </c>
+      <c r="J30">
+        <v>167200</v>
+      </c>
+      <c r="K30">
+        <v>165400</v>
+      </c>
+      <c r="L30">
+        <v>264600</v>
+      </c>
+      <c r="M30">
+        <v>309900</v>
+      </c>
+      <c r="N30">
+        <v>2547500</v>
+      </c>
+      <c r="O30">
+        <v>9520000</v>
+      </c>
+      <c r="P30">
+        <v>13652900</v>
+      </c>
+      <c r="Q30">
+        <v>30109100</v>
+      </c>
+      <c r="R30">
+        <v>22913800</v>
+      </c>
+      <c r="S30">
+        <v>45185400</v>
+      </c>
+      <c r="T30">
+        <v>89634500</v>
+      </c>
+      <c r="U30">
+        <v>90425300</v>
+      </c>
+      <c r="W30">
+        <v>88551400</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2200</v>
+      </c>
+      <c r="C31">
+        <v>2800</v>
+      </c>
+      <c r="D31">
+        <v>7200</v>
+      </c>
+      <c r="E31">
+        <v>4000</v>
+      </c>
+      <c r="F31">
+        <v>7572400</v>
+      </c>
+      <c r="G31">
+        <v>39600</v>
+      </c>
+      <c r="H31">
+        <v>101100</v>
+      </c>
+      <c r="I31">
+        <v>83100</v>
+      </c>
+      <c r="J31">
+        <v>109100</v>
+      </c>
+      <c r="K31">
+        <v>133300</v>
+      </c>
+      <c r="L31">
+        <v>332600</v>
+      </c>
+      <c r="M31">
+        <v>264700</v>
+      </c>
+      <c r="N31">
+        <v>5243400</v>
+      </c>
+      <c r="O31">
+        <v>9430000</v>
+      </c>
+      <c r="P31">
+        <v>16997700</v>
+      </c>
+      <c r="Q31">
+        <v>20688300</v>
+      </c>
+      <c r="R31">
+        <v>22244100</v>
+      </c>
+      <c r="S31">
+        <v>44702600</v>
+      </c>
+      <c r="T31">
+        <v>86400400</v>
+      </c>
+      <c r="U31">
+        <v>92231500</v>
+      </c>
+      <c r="W31">
+        <v>91463700</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2500</v>
+      </c>
+      <c r="C32">
+        <v>3500</v>
+      </c>
+      <c r="D32">
+        <v>6600</v>
+      </c>
+      <c r="E32">
+        <v>4400</v>
+      </c>
+      <c r="F32">
+        <v>25600</v>
+      </c>
+      <c r="G32">
+        <v>48300</v>
+      </c>
+      <c r="H32">
+        <v>82100</v>
+      </c>
+      <c r="I32">
+        <v>112000</v>
+      </c>
+      <c r="J32">
+        <v>157300</v>
+      </c>
+      <c r="K32">
+        <v>206500</v>
+      </c>
+      <c r="L32">
+        <v>422400</v>
+      </c>
+      <c r="M32">
+        <v>256200</v>
+      </c>
+      <c r="N32">
+        <v>5306800</v>
+      </c>
+      <c r="O32">
+        <v>7109600</v>
+      </c>
+      <c r="P32">
+        <v>13976800</v>
+      </c>
+      <c r="Q32">
+        <v>45009700</v>
+      </c>
+      <c r="R32">
+        <v>33458000</v>
+      </c>
+      <c r="S32">
+        <v>45536100</v>
+      </c>
+      <c r="T32">
+        <v>100045600</v>
+      </c>
+      <c r="U32">
+        <v>116017500</v>
+      </c>
+      <c r="W32">
+        <v>86745300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2700</v>
+      </c>
+      <c r="C33">
+        <v>3500</v>
+      </c>
+      <c r="D33">
+        <v>8500</v>
+      </c>
+      <c r="E33">
+        <v>4500</v>
+      </c>
+      <c r="F33">
+        <v>69700</v>
+      </c>
+      <c r="G33">
+        <v>52000</v>
+      </c>
+      <c r="H33">
+        <v>79100</v>
+      </c>
+      <c r="I33">
+        <v>65400</v>
+      </c>
+      <c r="J33">
+        <v>103900</v>
+      </c>
+      <c r="K33">
+        <v>127700</v>
+      </c>
+      <c r="L33">
+        <v>417800</v>
+      </c>
+      <c r="M33">
+        <v>1054900</v>
+      </c>
+      <c r="N33">
+        <v>3454800</v>
+      </c>
+      <c r="O33">
+        <v>6735300</v>
+      </c>
+      <c r="P33">
+        <v>12292300</v>
+      </c>
+      <c r="Q33">
+        <v>25569200</v>
+      </c>
+      <c r="R33">
+        <v>27740900</v>
+      </c>
+      <c r="S33">
+        <v>44571400</v>
+      </c>
+      <c r="T33">
+        <v>85163300</v>
+      </c>
+      <c r="U33">
+        <v>118503200</v>
+      </c>
+      <c r="W33">
+        <v>97467200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2100</v>
+      </c>
+      <c r="C34">
+        <v>4500</v>
+      </c>
+      <c r="D34">
+        <v>8500</v>
+      </c>
+      <c r="E34">
+        <v>4800</v>
+      </c>
+      <c r="F34">
+        <v>84200</v>
+      </c>
+      <c r="G34">
+        <v>58800</v>
+      </c>
+      <c r="H34">
+        <v>89300</v>
+      </c>
+      <c r="I34">
+        <v>78700</v>
+      </c>
+      <c r="J34">
+        <v>171700</v>
+      </c>
+      <c r="K34">
+        <v>212500</v>
+      </c>
+      <c r="L34">
+        <v>483800</v>
+      </c>
+      <c r="M34">
+        <v>251300</v>
+      </c>
+      <c r="N34">
+        <v>8348200</v>
+      </c>
+      <c r="O34">
+        <v>7613100</v>
+      </c>
+      <c r="P34">
+        <v>13418000</v>
+      </c>
+      <c r="Q34">
+        <v>24357400</v>
+      </c>
+      <c r="R34">
+        <v>23012900</v>
+      </c>
+      <c r="S34">
+        <v>44401400</v>
+      </c>
+      <c r="T34">
+        <v>71491000</v>
+      </c>
+      <c r="U34">
+        <v>91581800</v>
+      </c>
+      <c r="W34">
+        <v>93143700</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1900</v>
+      </c>
+      <c r="C35">
+        <v>10500</v>
+      </c>
+      <c r="D35">
+        <v>8700</v>
+      </c>
+      <c r="E35">
+        <v>4700</v>
+      </c>
+      <c r="F35">
+        <v>51900</v>
+      </c>
+      <c r="G35">
+        <v>51900</v>
+      </c>
+      <c r="H35">
+        <v>74700</v>
+      </c>
+      <c r="I35">
+        <v>93100</v>
+      </c>
+      <c r="J35">
+        <v>107200</v>
+      </c>
+      <c r="K35">
+        <v>129400</v>
+      </c>
+      <c r="L35">
+        <v>379300</v>
+      </c>
+      <c r="M35">
+        <v>435900</v>
+      </c>
+      <c r="N35">
+        <v>7272900</v>
+      </c>
+      <c r="O35">
+        <v>7652500</v>
+      </c>
+      <c r="P35">
+        <v>15897200</v>
+      </c>
+      <c r="Q35">
+        <v>23187400</v>
+      </c>
+      <c r="R35">
+        <v>23588900</v>
+      </c>
+      <c r="S35">
+        <v>51504800</v>
+      </c>
+      <c r="T35">
+        <v>67539500</v>
+      </c>
+      <c r="U35">
+        <v>90462500</v>
+      </c>
+      <c r="W35">
+        <v>91977900</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2600</v>
+      </c>
+      <c r="C36">
+        <v>4600</v>
+      </c>
+      <c r="D36">
+        <v>5100</v>
+      </c>
+      <c r="E36">
+        <v>4100</v>
+      </c>
+      <c r="F36">
+        <v>54900</v>
+      </c>
+      <c r="G36">
+        <v>39200</v>
+      </c>
+      <c r="H36">
+        <v>67000</v>
+      </c>
+      <c r="I36">
+        <v>82500</v>
+      </c>
+      <c r="J36">
+        <v>108100</v>
+      </c>
+      <c r="K36">
+        <v>187500</v>
+      </c>
+      <c r="L36">
+        <v>254500</v>
+      </c>
+      <c r="M36">
+        <v>259700</v>
+      </c>
+      <c r="N36">
+        <v>3566500</v>
+      </c>
+      <c r="O36">
+        <v>8910600</v>
+      </c>
+      <c r="P36">
+        <v>21127800</v>
+      </c>
+      <c r="Q36">
+        <v>19161300</v>
+      </c>
+      <c r="R36">
+        <v>23526000</v>
+      </c>
+      <c r="S36">
+        <v>62516200</v>
+      </c>
+      <c r="T36">
+        <v>70190900</v>
+      </c>
+      <c r="U36">
+        <v>108594000</v>
+      </c>
+      <c r="W36">
+        <v>118002900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2200</v>
+      </c>
+      <c r="C37">
+        <v>4500</v>
+      </c>
+      <c r="D37">
+        <v>5200</v>
+      </c>
+      <c r="E37">
+        <v>4700</v>
+      </c>
+      <c r="F37">
+        <v>35500</v>
+      </c>
+      <c r="G37">
+        <v>50400</v>
+      </c>
+      <c r="H37">
+        <v>71800</v>
+      </c>
+      <c r="I37">
+        <v>84800</v>
+      </c>
+      <c r="J37">
+        <v>217500</v>
+      </c>
+      <c r="K37">
+        <v>179200</v>
+      </c>
+      <c r="L37">
+        <v>243200</v>
+      </c>
+      <c r="M37">
+        <v>548100</v>
+      </c>
+      <c r="N37">
+        <v>4985500</v>
+      </c>
+      <c r="O37">
+        <v>9415600</v>
+      </c>
+      <c r="P37">
+        <v>12939200</v>
+      </c>
+      <c r="Q37">
+        <v>20325200</v>
+      </c>
+      <c r="R37">
+        <v>22283400</v>
+      </c>
+      <c r="S37">
+        <v>45084100</v>
+      </c>
+      <c r="T37">
+        <v>348311000</v>
+      </c>
+      <c r="U37">
+        <v>89559300</v>
+      </c>
+      <c r="W37">
+        <v>92497000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2200</v>
+      </c>
+      <c r="C38">
+        <v>5300</v>
+      </c>
+      <c r="D38">
+        <v>8200</v>
+      </c>
+      <c r="E38">
+        <v>8200</v>
+      </c>
+      <c r="F38">
+        <v>31300</v>
+      </c>
+      <c r="G38">
+        <v>70400</v>
+      </c>
+      <c r="H38">
+        <v>67100</v>
+      </c>
+      <c r="I38">
+        <v>85300</v>
+      </c>
+      <c r="J38">
+        <v>192600</v>
+      </c>
+      <c r="K38">
+        <v>233300</v>
+      </c>
+      <c r="L38">
+        <v>315100</v>
+      </c>
+      <c r="M38">
+        <v>392400</v>
+      </c>
+      <c r="N38">
+        <v>5909700</v>
+      </c>
+      <c r="O38">
+        <v>9565200</v>
+      </c>
+      <c r="P38">
+        <v>13872300</v>
+      </c>
+      <c r="Q38">
+        <v>21566400</v>
+      </c>
+      <c r="R38">
+        <v>30355600</v>
+      </c>
+      <c r="S38">
+        <v>49423900</v>
+      </c>
+      <c r="T38">
+        <v>101295200</v>
+      </c>
+      <c r="U38">
+        <v>97862600</v>
+      </c>
+      <c r="W38">
+        <v>96732400</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2000</v>
+      </c>
+      <c r="C39">
+        <v>3900</v>
+      </c>
+      <c r="D39">
+        <v>5000</v>
+      </c>
+      <c r="E39">
+        <v>3600</v>
+      </c>
+      <c r="F39">
+        <v>31700</v>
+      </c>
+      <c r="G39">
+        <v>53400</v>
+      </c>
+      <c r="H39">
+        <v>147500</v>
+      </c>
+      <c r="I39">
+        <v>67100</v>
+      </c>
+      <c r="J39">
+        <v>232600</v>
+      </c>
+      <c r="K39">
+        <v>180800</v>
+      </c>
+      <c r="L39">
+        <v>424400</v>
+      </c>
+      <c r="M39">
+        <v>509100</v>
+      </c>
+      <c r="N39">
+        <v>4458700</v>
+      </c>
+      <c r="O39">
+        <v>13829600</v>
+      </c>
+      <c r="P39">
+        <v>13265000</v>
+      </c>
+      <c r="Q39">
+        <v>26632300</v>
+      </c>
+      <c r="R39">
+        <v>31287500</v>
+      </c>
+      <c r="S39">
+        <v>55294100</v>
+      </c>
+      <c r="T39">
+        <v>188009300</v>
+      </c>
+      <c r="U39">
+        <v>108250900</v>
+      </c>
+      <c r="W39">
+        <v>90813200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2400</v>
+      </c>
+      <c r="C40">
+        <v>3300</v>
+      </c>
+      <c r="D40">
+        <v>5100</v>
+      </c>
+      <c r="E40">
+        <v>6300</v>
+      </c>
+      <c r="F40">
+        <v>22700</v>
+      </c>
+      <c r="G40">
+        <v>38800</v>
+      </c>
+      <c r="H40">
+        <v>69200</v>
+      </c>
+      <c r="I40">
+        <v>61300</v>
+      </c>
+      <c r="J40">
+        <v>113700</v>
+      </c>
+      <c r="K40">
+        <v>285300</v>
+      </c>
+      <c r="L40">
+        <v>379600</v>
+      </c>
+      <c r="M40">
+        <v>539000</v>
+      </c>
+      <c r="N40">
+        <v>3993200</v>
+      </c>
+      <c r="O40">
+        <v>13483100</v>
+      </c>
+      <c r="P40">
+        <v>12728000</v>
+      </c>
+      <c r="Q40">
+        <v>26128400</v>
+      </c>
+      <c r="R40">
+        <v>23133700</v>
+      </c>
+      <c r="S40">
+        <v>46417000</v>
+      </c>
+      <c r="T40">
+        <v>73340600</v>
+      </c>
+      <c r="U40">
+        <v>109142100</v>
+      </c>
+      <c r="W40">
+        <v>90897200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2000</v>
+      </c>
+      <c r="C41">
+        <v>3500</v>
+      </c>
+      <c r="D41">
+        <v>5800</v>
+      </c>
+      <c r="E41">
+        <v>4800</v>
+      </c>
+      <c r="F41">
+        <v>30800</v>
+      </c>
+      <c r="G41">
+        <v>51300</v>
+      </c>
+      <c r="H41">
+        <v>99800</v>
+      </c>
+      <c r="I41">
+        <v>61600</v>
+      </c>
+      <c r="J41">
+        <v>105800</v>
+      </c>
+      <c r="K41">
+        <v>135200</v>
+      </c>
+      <c r="L41">
+        <v>273000</v>
+      </c>
+      <c r="M41">
+        <v>431100</v>
+      </c>
+      <c r="N41">
+        <v>5430200</v>
+      </c>
+      <c r="O41">
+        <v>14858100</v>
+      </c>
+      <c r="P41">
+        <v>15609600</v>
+      </c>
+      <c r="Q41">
+        <v>24214500</v>
+      </c>
+      <c r="R41">
+        <v>24142000</v>
+      </c>
+      <c r="S41">
+        <v>51709100</v>
+      </c>
+      <c r="T41">
+        <v>81604100</v>
+      </c>
+      <c r="U41">
+        <v>136792000</v>
+      </c>
+      <c r="W41">
+        <v>103135600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2400</v>
+      </c>
+      <c r="C42">
+        <v>4300</v>
+      </c>
+      <c r="D42">
+        <v>8800</v>
+      </c>
+      <c r="E42">
+        <v>4700</v>
+      </c>
+      <c r="F42">
+        <v>34200</v>
+      </c>
+      <c r="G42">
+        <v>47300</v>
+      </c>
+      <c r="H42">
+        <v>63100</v>
+      </c>
+      <c r="I42">
+        <v>81000</v>
+      </c>
+      <c r="J42">
+        <v>123400</v>
+      </c>
+      <c r="K42">
+        <v>1737800</v>
+      </c>
+      <c r="L42">
+        <v>279700</v>
+      </c>
+      <c r="M42">
+        <v>894800</v>
+      </c>
+      <c r="N42">
+        <v>6066800</v>
+      </c>
+      <c r="O42">
+        <v>7961500</v>
+      </c>
+      <c r="P42">
+        <v>20523700</v>
+      </c>
+      <c r="Q42">
+        <v>19262100</v>
+      </c>
+      <c r="R42">
+        <v>23031800</v>
+      </c>
+      <c r="S42">
+        <v>46092800</v>
+      </c>
+      <c r="T42">
+        <v>83559200</v>
+      </c>
+      <c r="U42">
+        <v>90465300</v>
+      </c>
+      <c r="W42">
+        <v>88525700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2200</v>
+      </c>
+      <c r="C43">
+        <v>3800</v>
+      </c>
+      <c r="D43">
+        <v>5000</v>
+      </c>
+      <c r="E43">
+        <v>4000</v>
+      </c>
+      <c r="F43">
+        <v>47100</v>
+      </c>
+      <c r="G43">
+        <v>37800</v>
+      </c>
+      <c r="H43">
+        <v>68000</v>
+      </c>
+      <c r="I43">
+        <v>65900</v>
+      </c>
+      <c r="J43">
+        <v>146300</v>
+      </c>
+      <c r="K43">
+        <v>205100</v>
+      </c>
+      <c r="L43">
+        <v>200000</v>
+      </c>
+      <c r="M43">
+        <v>270700</v>
+      </c>
+      <c r="N43">
+        <v>4623200</v>
+      </c>
+      <c r="O43">
+        <v>6543600</v>
+      </c>
+      <c r="P43">
+        <v>17873900</v>
+      </c>
+      <c r="Q43">
+        <v>20501300</v>
+      </c>
+      <c r="R43">
+        <v>22356700</v>
+      </c>
+      <c r="S43">
+        <v>47785300</v>
+      </c>
+      <c r="T43">
+        <v>71872200</v>
+      </c>
+      <c r="U43">
+        <v>107243900</v>
+      </c>
+      <c r="W43">
+        <v>92927900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2900</v>
+      </c>
+      <c r="C44">
+        <v>4100</v>
+      </c>
+      <c r="D44">
+        <v>8200</v>
+      </c>
+      <c r="E44">
+        <v>4500</v>
+      </c>
+      <c r="F44">
+        <v>53700</v>
+      </c>
+      <c r="G44">
+        <v>68700</v>
+      </c>
+      <c r="H44">
+        <v>3276100</v>
+      </c>
+      <c r="I44">
+        <v>102200</v>
+      </c>
+      <c r="J44">
+        <v>119100</v>
+      </c>
+      <c r="K44">
+        <v>185500</v>
+      </c>
+      <c r="L44">
+        <v>192800</v>
+      </c>
+      <c r="M44">
+        <v>485300</v>
+      </c>
+      <c r="N44">
+        <v>4921700</v>
+      </c>
+      <c r="O44">
+        <v>10388800</v>
+      </c>
+      <c r="P44">
+        <v>15340600</v>
+      </c>
+      <c r="Q44">
+        <v>22673100</v>
+      </c>
+      <c r="R44">
+        <v>26434100</v>
+      </c>
+      <c r="S44">
+        <v>72274500</v>
+      </c>
+      <c r="T44">
+        <v>75551000</v>
+      </c>
+      <c r="U44">
+        <v>98504800</v>
+      </c>
+      <c r="W44">
+        <v>92169200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2500</v>
+      </c>
+      <c r="C45">
+        <v>5100</v>
+      </c>
+      <c r="D45">
+        <v>5900</v>
+      </c>
+      <c r="E45">
+        <v>5500</v>
+      </c>
+      <c r="F45">
+        <v>24400</v>
+      </c>
+      <c r="G45">
+        <v>38700</v>
+      </c>
+      <c r="H45">
+        <v>51200</v>
+      </c>
+      <c r="I45">
+        <v>68300</v>
+      </c>
+      <c r="J45">
+        <v>101100</v>
+      </c>
+      <c r="K45">
+        <v>189600</v>
+      </c>
+      <c r="L45">
+        <v>475600</v>
+      </c>
+      <c r="M45">
+        <v>325500</v>
+      </c>
+      <c r="N45">
+        <v>4536700</v>
+      </c>
+      <c r="O45">
+        <v>6889900</v>
+      </c>
+      <c r="P45">
+        <v>13478400</v>
+      </c>
+      <c r="Q45">
+        <v>31267700</v>
+      </c>
+      <c r="R45">
+        <v>23890900</v>
+      </c>
+      <c r="S45">
+        <v>48005600</v>
+      </c>
+      <c r="T45">
+        <v>81372700</v>
+      </c>
+      <c r="U45">
+        <v>104052700</v>
+      </c>
+      <c r="W45">
+        <v>90710700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2100</v>
+      </c>
+      <c r="C46">
+        <v>6400</v>
+      </c>
+      <c r="D46">
+        <v>5100</v>
+      </c>
+      <c r="E46">
+        <v>4900</v>
+      </c>
+      <c r="F46">
+        <v>24000</v>
+      </c>
+      <c r="G46">
+        <v>47600</v>
+      </c>
+      <c r="H46">
+        <v>49700</v>
+      </c>
+      <c r="I46">
+        <v>69600</v>
+      </c>
+      <c r="J46">
+        <v>195300</v>
+      </c>
+      <c r="K46">
+        <v>193900</v>
+      </c>
+      <c r="L46">
+        <v>194200</v>
+      </c>
+      <c r="M46">
+        <v>363000</v>
+      </c>
+      <c r="N46">
+        <v>8935500</v>
+      </c>
+      <c r="O46">
+        <v>10648600</v>
+      </c>
+      <c r="P46">
+        <v>16516600</v>
+      </c>
+      <c r="Q46">
+        <v>29331300</v>
+      </c>
+      <c r="R46">
+        <v>25073300</v>
+      </c>
+      <c r="S46">
+        <v>51884100</v>
+      </c>
+      <c r="T46">
+        <v>86575500</v>
+      </c>
+      <c r="U46">
+        <v>90457900</v>
+      </c>
+      <c r="W46">
+        <v>91258400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2900</v>
+      </c>
+      <c r="C47">
+        <v>6700</v>
+      </c>
+      <c r="D47">
+        <v>5600</v>
+      </c>
+      <c r="E47">
+        <v>5100</v>
+      </c>
+      <c r="F47">
+        <v>30600</v>
+      </c>
+      <c r="G47">
+        <v>55700</v>
+      </c>
+      <c r="H47">
+        <v>73200</v>
+      </c>
+      <c r="I47">
+        <v>63900</v>
+      </c>
+      <c r="J47">
+        <v>190500</v>
+      </c>
+      <c r="K47">
+        <v>267600</v>
+      </c>
+      <c r="L47">
+        <v>259400</v>
+      </c>
+      <c r="M47">
+        <v>259000</v>
+      </c>
+      <c r="N47">
+        <v>3510500</v>
+      </c>
+      <c r="O47">
+        <v>8022200</v>
+      </c>
+      <c r="P47">
+        <v>26914600</v>
+      </c>
+      <c r="Q47">
+        <v>24798800</v>
+      </c>
+      <c r="R47">
+        <v>22093000</v>
+      </c>
+      <c r="S47">
+        <v>49719300</v>
+      </c>
+      <c r="T47">
+        <v>69427200</v>
+      </c>
+      <c r="U47">
+        <v>93260800</v>
+      </c>
+      <c r="W47">
+        <v>94130800</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2300</v>
+      </c>
+      <c r="C48">
+        <v>4800</v>
+      </c>
+      <c r="D48">
+        <v>5200</v>
+      </c>
+      <c r="E48">
+        <v>4100</v>
+      </c>
+      <c r="F48">
+        <v>31900</v>
+      </c>
+      <c r="G48">
+        <v>38400</v>
+      </c>
+      <c r="H48">
+        <v>79700</v>
+      </c>
+      <c r="I48">
+        <v>63700</v>
+      </c>
+      <c r="J48">
+        <v>156500</v>
+      </c>
+      <c r="K48">
+        <v>236600</v>
+      </c>
+      <c r="L48">
+        <v>181200</v>
+      </c>
+      <c r="M48">
+        <v>572200</v>
+      </c>
+      <c r="N48">
+        <v>5458500</v>
+      </c>
+      <c r="O48">
+        <v>8261000</v>
+      </c>
+      <c r="P48">
+        <v>26459300</v>
+      </c>
+      <c r="Q48">
+        <v>18326300</v>
+      </c>
+      <c r="R48">
+        <v>20480500</v>
+      </c>
+      <c r="S48">
+        <v>52967200</v>
+      </c>
+      <c r="T48">
+        <v>83645100</v>
+      </c>
+      <c r="U48">
+        <v>93951600</v>
+      </c>
+      <c r="W48">
+        <v>110830000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1900</v>
+      </c>
+      <c r="C49">
+        <v>3500</v>
+      </c>
+      <c r="D49">
+        <v>11200</v>
+      </c>
+      <c r="E49">
+        <v>6000</v>
+      </c>
+      <c r="F49">
+        <v>25500</v>
+      </c>
+      <c r="G49">
+        <v>37200</v>
+      </c>
+      <c r="H49">
+        <v>64200</v>
+      </c>
+      <c r="I49">
+        <v>87000</v>
+      </c>
+      <c r="J49">
+        <v>158900</v>
+      </c>
+      <c r="K49">
+        <v>368800</v>
+      </c>
+      <c r="L49">
+        <v>181400</v>
+      </c>
+      <c r="M49">
+        <v>401400</v>
+      </c>
+      <c r="N49">
+        <v>5987400</v>
+      </c>
+      <c r="O49">
+        <v>7995700</v>
+      </c>
+      <c r="P49">
+        <v>20401700</v>
+      </c>
+      <c r="Q49">
+        <v>19154900</v>
+      </c>
+      <c r="R49">
+        <v>21894600</v>
+      </c>
+      <c r="S49">
+        <v>49988000</v>
+      </c>
+      <c r="T49">
+        <v>82545500</v>
+      </c>
+      <c r="U49">
+        <v>105128800</v>
+      </c>
+      <c r="W49">
+        <v>88211700</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>3800</v>
+      </c>
+      <c r="C50">
+        <v>3700</v>
+      </c>
+      <c r="D50">
+        <v>8800</v>
+      </c>
+      <c r="E50">
+        <v>6000</v>
+      </c>
+      <c r="F50">
+        <v>43400</v>
+      </c>
+      <c r="G50">
+        <v>53900</v>
+      </c>
+      <c r="H50">
+        <v>69200</v>
+      </c>
+      <c r="I50">
+        <v>92200</v>
+      </c>
+      <c r="J50">
+        <v>128000</v>
+      </c>
+      <c r="K50">
+        <v>219000</v>
+      </c>
+      <c r="L50">
+        <v>187500</v>
+      </c>
+      <c r="M50">
+        <v>252700</v>
+      </c>
+      <c r="N50">
+        <v>3801200</v>
+      </c>
+      <c r="O50">
+        <v>13355300</v>
+      </c>
+      <c r="P50">
+        <v>35517100</v>
+      </c>
+      <c r="Q50">
+        <v>42011300</v>
+      </c>
+      <c r="R50">
+        <v>26039400</v>
+      </c>
+      <c r="S50">
+        <v>48700900</v>
+      </c>
+      <c r="T50">
+        <v>67873700</v>
+      </c>
+      <c r="U50">
+        <v>90797600</v>
+      </c>
+      <c r="W50">
+        <v>92959100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2200</v>
+      </c>
+      <c r="C51">
+        <v>3800</v>
+      </c>
+      <c r="D51">
+        <v>5200</v>
+      </c>
+      <c r="E51">
+        <v>9800</v>
+      </c>
+      <c r="F51">
+        <v>30800</v>
+      </c>
+      <c r="G51">
+        <v>49400</v>
+      </c>
+      <c r="H51">
+        <v>71500</v>
+      </c>
+      <c r="I51">
+        <v>88700</v>
+      </c>
+      <c r="J51">
+        <v>189800</v>
+      </c>
+      <c r="K51">
+        <v>231100</v>
+      </c>
+      <c r="L51">
+        <v>184600</v>
+      </c>
+      <c r="M51">
+        <v>405100</v>
+      </c>
+      <c r="N51">
+        <v>4406800</v>
+      </c>
+      <c r="O51">
+        <v>7926300</v>
+      </c>
+      <c r="P51">
+        <v>16918600</v>
+      </c>
+      <c r="Q51">
+        <v>49048300</v>
+      </c>
+      <c r="R51">
+        <v>21420200</v>
+      </c>
+      <c r="S51">
+        <v>44661600</v>
+      </c>
+      <c r="T51">
+        <v>82105000</v>
+      </c>
+      <c r="U51">
+        <v>89829600</v>
+      </c>
+      <c r="W51">
+        <v>91983100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2900</v>
+      </c>
+      <c r="C52">
+        <v>3800</v>
+      </c>
+      <c r="D52">
+        <v>12400</v>
+      </c>
+      <c r="E52">
+        <v>4700</v>
+      </c>
+      <c r="F52">
+        <v>32100</v>
+      </c>
+      <c r="G52">
+        <v>48500</v>
+      </c>
+      <c r="H52">
+        <v>64400</v>
+      </c>
+      <c r="I52">
+        <v>63400</v>
+      </c>
+      <c r="J52">
+        <v>102900</v>
+      </c>
+      <c r="K52">
+        <v>262600</v>
+      </c>
+      <c r="L52">
+        <v>223700</v>
+      </c>
+      <c r="M52">
+        <v>423400</v>
+      </c>
+      <c r="N52">
+        <v>5919200</v>
+      </c>
+      <c r="O52">
+        <v>7935600</v>
+      </c>
+      <c r="P52">
+        <v>17386400</v>
+      </c>
+      <c r="Q52">
+        <v>22793200</v>
+      </c>
+      <c r="R52">
+        <v>24489200</v>
+      </c>
+      <c r="S52">
+        <v>52856900</v>
+      </c>
+      <c r="T52">
+        <v>74012500</v>
+      </c>
+      <c r="U52">
+        <v>112089700</v>
+      </c>
+      <c r="W52">
+        <v>87593800</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2700</v>
+      </c>
+      <c r="C53">
+        <v>3600</v>
+      </c>
+      <c r="D53">
+        <v>5100</v>
+      </c>
+      <c r="E53">
+        <v>5100</v>
+      </c>
+      <c r="F53">
+        <v>66400</v>
+      </c>
+      <c r="G53">
+        <v>69200</v>
+      </c>
+      <c r="H53">
+        <v>48700</v>
+      </c>
+      <c r="I53">
+        <v>68600</v>
+      </c>
+      <c r="J53">
+        <v>114500</v>
+      </c>
+      <c r="K53">
+        <v>191400</v>
+      </c>
+      <c r="L53">
+        <v>209300</v>
+      </c>
+      <c r="M53">
+        <v>443100</v>
+      </c>
+      <c r="N53">
+        <v>6936400</v>
+      </c>
+      <c r="O53">
+        <v>9143900</v>
+      </c>
+      <c r="P53">
+        <v>12579000</v>
+      </c>
+      <c r="Q53">
+        <v>18081000</v>
+      </c>
+      <c r="R53">
+        <v>25749100</v>
+      </c>
+      <c r="S53">
+        <v>49860100</v>
+      </c>
+      <c r="T53">
+        <v>67665400</v>
+      </c>
+      <c r="U53">
+        <v>112888600</v>
+      </c>
+      <c r="W53">
+        <v>121504700</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2900</v>
+      </c>
+      <c r="C54">
+        <v>4200</v>
+      </c>
+      <c r="D54">
+        <v>4700</v>
+      </c>
+      <c r="E54">
+        <v>5500</v>
+      </c>
+      <c r="F54">
+        <v>29800</v>
+      </c>
+      <c r="G54">
+        <v>38500</v>
+      </c>
+      <c r="H54">
+        <v>73000</v>
+      </c>
+      <c r="I54">
+        <v>87500</v>
+      </c>
+      <c r="J54">
+        <v>205700</v>
+      </c>
+      <c r="K54">
+        <v>133200</v>
+      </c>
+      <c r="L54">
+        <v>374500</v>
+      </c>
+      <c r="M54">
+        <v>569600</v>
+      </c>
+      <c r="N54">
+        <v>2915600</v>
+      </c>
+      <c r="O54">
+        <v>8560800</v>
+      </c>
+      <c r="P54">
+        <v>13929400</v>
+      </c>
+      <c r="Q54">
+        <v>18445300</v>
+      </c>
+      <c r="R54">
+        <v>23930200</v>
+      </c>
+      <c r="S54">
+        <v>45063700</v>
+      </c>
+      <c r="T54">
+        <v>78767700</v>
+      </c>
+      <c r="U54">
+        <v>90533800</v>
+      </c>
+      <c r="W54">
+        <v>92399100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>3400</v>
+      </c>
+      <c r="C55">
+        <v>7400</v>
+      </c>
+      <c r="D55">
+        <v>4300</v>
+      </c>
+      <c r="E55">
+        <v>8900</v>
+      </c>
+      <c r="F55">
+        <v>26900</v>
+      </c>
+      <c r="G55">
+        <v>46400</v>
+      </c>
+      <c r="H55">
+        <v>66300</v>
+      </c>
+      <c r="I55">
+        <v>90400</v>
+      </c>
+      <c r="J55">
+        <v>158400</v>
+      </c>
+      <c r="K55">
+        <v>202400</v>
+      </c>
+      <c r="L55">
+        <v>176900</v>
+      </c>
+      <c r="M55">
+        <v>2209300</v>
+      </c>
+      <c r="N55">
+        <v>12097800</v>
+      </c>
+      <c r="O55">
+        <v>7895700</v>
+      </c>
+      <c r="P55">
+        <v>12206900</v>
+      </c>
+      <c r="Q55">
+        <v>22440600</v>
+      </c>
+      <c r="R55">
+        <v>24923500</v>
+      </c>
+      <c r="S55">
+        <v>51136400</v>
+      </c>
+      <c r="T55">
+        <v>77624500</v>
+      </c>
+      <c r="U55">
+        <v>93156700</v>
+      </c>
+      <c r="W55">
+        <v>89288100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2700</v>
+      </c>
+      <c r="C56">
+        <v>3900</v>
+      </c>
+      <c r="D56">
+        <v>4000</v>
+      </c>
+      <c r="E56">
+        <v>5700</v>
+      </c>
+      <c r="F56">
+        <v>54500</v>
+      </c>
+      <c r="G56">
+        <v>50700</v>
+      </c>
+      <c r="H56">
+        <v>70600</v>
+      </c>
+      <c r="I56">
+        <v>91300</v>
+      </c>
+      <c r="J56">
+        <v>177500</v>
+      </c>
+      <c r="K56">
+        <v>161200</v>
+      </c>
+      <c r="L56">
+        <v>181900</v>
+      </c>
+      <c r="M56">
+        <v>781100</v>
+      </c>
+      <c r="N56">
+        <v>7677500</v>
+      </c>
+      <c r="O56">
+        <v>7855200</v>
+      </c>
+      <c r="P56">
+        <v>12364500</v>
+      </c>
+      <c r="Q56">
+        <v>26096600</v>
+      </c>
+      <c r="R56">
+        <v>20774200</v>
+      </c>
+      <c r="S56">
+        <v>51678300</v>
+      </c>
+      <c r="T56">
+        <v>93716100</v>
+      </c>
+      <c r="U56">
+        <v>94505600</v>
+      </c>
+      <c r="W56">
+        <v>87237000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4900</v>
+      </c>
+      <c r="C57">
+        <v>3900</v>
+      </c>
+      <c r="D57">
+        <v>5500</v>
+      </c>
+      <c r="E57">
+        <v>4100</v>
+      </c>
+      <c r="F57">
+        <v>40800</v>
+      </c>
+      <c r="G57">
+        <v>46100</v>
+      </c>
+      <c r="H57">
+        <v>68100</v>
+      </c>
+      <c r="I57">
+        <v>60800</v>
+      </c>
+      <c r="J57">
+        <v>467500</v>
+      </c>
+      <c r="K57">
+        <v>146600</v>
+      </c>
+      <c r="L57">
+        <v>227100</v>
+      </c>
+      <c r="M57">
+        <v>635600</v>
+      </c>
+      <c r="N57">
+        <v>4320700</v>
+      </c>
+      <c r="O57">
+        <v>7555700</v>
+      </c>
+      <c r="P57">
+        <v>14827300</v>
+      </c>
+      <c r="Q57">
+        <v>20692300</v>
+      </c>
+      <c r="R57">
+        <v>23822300</v>
+      </c>
+      <c r="S57">
+        <v>96634000</v>
+      </c>
+      <c r="T57">
+        <v>84709900</v>
+      </c>
+      <c r="U57">
+        <v>95888500</v>
+      </c>
+      <c r="W57">
+        <v>96538200</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3600</v>
+      </c>
+      <c r="C58">
+        <v>3700</v>
+      </c>
+      <c r="D58">
+        <v>8100</v>
+      </c>
+      <c r="E58">
+        <v>4100</v>
+      </c>
+      <c r="F58">
+        <v>26700</v>
+      </c>
+      <c r="G58">
+        <v>52800</v>
+      </c>
+      <c r="H58">
+        <v>50400</v>
+      </c>
+      <c r="I58">
+        <v>86300</v>
+      </c>
+      <c r="J58">
+        <v>105200</v>
+      </c>
+      <c r="K58">
+        <v>137600</v>
+      </c>
+      <c r="L58">
+        <v>209300</v>
+      </c>
+      <c r="M58">
+        <v>595700</v>
+      </c>
+      <c r="N58">
+        <v>3276500</v>
+      </c>
+      <c r="O58">
+        <v>24523100</v>
+      </c>
+      <c r="P58">
+        <v>14045300</v>
+      </c>
+      <c r="Q58">
+        <v>20789200</v>
+      </c>
+      <c r="R58">
+        <v>20518500</v>
+      </c>
+      <c r="S58">
+        <v>46933500</v>
+      </c>
+      <c r="T58">
+        <v>186958600</v>
+      </c>
+      <c r="U58">
+        <v>117338700</v>
+      </c>
+      <c r="W58">
+        <v>100997200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2700</v>
+      </c>
+      <c r="C59">
+        <v>3400</v>
+      </c>
+      <c r="D59">
+        <v>5400</v>
+      </c>
+      <c r="E59">
+        <v>4800</v>
+      </c>
+      <c r="F59">
+        <v>48300</v>
+      </c>
+      <c r="G59">
+        <v>89700</v>
+      </c>
+      <c r="H59">
+        <v>68600</v>
+      </c>
+      <c r="I59">
+        <v>77300</v>
+      </c>
+      <c r="J59">
+        <v>101600</v>
+      </c>
+      <c r="K59">
+        <v>252300</v>
+      </c>
+      <c r="L59">
+        <v>239300</v>
+      </c>
+      <c r="M59">
+        <v>643500</v>
+      </c>
+      <c r="N59">
+        <v>5740600</v>
+      </c>
+      <c r="O59">
+        <v>10970900</v>
+      </c>
+      <c r="P59">
+        <v>13092800</v>
+      </c>
+      <c r="Q59">
+        <v>19320900</v>
+      </c>
+      <c r="R59">
+        <v>23813700</v>
+      </c>
+      <c r="S59">
+        <v>47966600</v>
+      </c>
+      <c r="T59">
+        <v>75682200</v>
+      </c>
+      <c r="U59">
+        <v>89435700</v>
+      </c>
+      <c r="W59">
+        <v>90804400</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>3700</v>
+      </c>
+      <c r="C60">
+        <v>3700</v>
+      </c>
+      <c r="D60">
+        <v>9000</v>
+      </c>
+      <c r="E60">
+        <v>3600</v>
+      </c>
+      <c r="F60">
+        <v>50700</v>
+      </c>
+      <c r="G60">
+        <v>46200</v>
+      </c>
+      <c r="H60">
+        <v>51800</v>
+      </c>
+      <c r="I60">
+        <v>66900</v>
+      </c>
+      <c r="J60">
+        <v>160600</v>
+      </c>
+      <c r="K60">
+        <v>129100</v>
+      </c>
+      <c r="L60">
+        <v>205600</v>
+      </c>
+      <c r="M60">
+        <v>349500</v>
+      </c>
+      <c r="N60">
+        <v>5609600</v>
+      </c>
+      <c r="O60">
+        <v>11963500</v>
+      </c>
+      <c r="P60">
+        <v>12295000</v>
+      </c>
+      <c r="Q60">
+        <v>24605600</v>
+      </c>
+      <c r="R60">
+        <v>25736700</v>
+      </c>
+      <c r="S60">
+        <v>52899400</v>
+      </c>
+      <c r="T60">
+        <v>75465800</v>
+      </c>
+      <c r="U60">
+        <v>104096000</v>
+      </c>
+      <c r="W60">
+        <v>89457000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>5800</v>
+      </c>
+      <c r="C61">
+        <v>4800</v>
+      </c>
+      <c r="D61">
+        <v>4900</v>
+      </c>
+      <c r="E61">
+        <v>7300</v>
+      </c>
+      <c r="F61">
+        <v>47500</v>
+      </c>
+      <c r="G61">
+        <v>54400</v>
+      </c>
+      <c r="H61">
+        <v>101500</v>
+      </c>
+      <c r="I61">
+        <v>88300</v>
+      </c>
+      <c r="J61">
+        <v>180500</v>
+      </c>
+      <c r="K61">
+        <v>192000</v>
+      </c>
+      <c r="L61">
+        <v>209800</v>
+      </c>
+      <c r="M61">
+        <v>458100</v>
+      </c>
+      <c r="N61">
+        <v>3829600</v>
+      </c>
+      <c r="O61">
+        <v>15889900</v>
+      </c>
+      <c r="P61">
+        <v>12077500</v>
+      </c>
+      <c r="Q61">
+        <v>19201700</v>
+      </c>
+      <c r="R61">
+        <v>59643700</v>
+      </c>
+      <c r="S61">
+        <v>48835800</v>
+      </c>
+      <c r="T61">
+        <v>68707200</v>
+      </c>
+      <c r="U61">
+        <v>90638600</v>
+      </c>
+      <c r="W61">
+        <v>92942900</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>3400</v>
+      </c>
+      <c r="C62">
+        <v>4300</v>
+      </c>
+      <c r="D62">
+        <v>5000</v>
+      </c>
+      <c r="E62">
+        <v>6400</v>
+      </c>
+      <c r="F62">
+        <v>29600</v>
+      </c>
+      <c r="G62">
+        <v>47300</v>
+      </c>
+      <c r="H62">
+        <v>104300</v>
+      </c>
+      <c r="I62">
+        <v>79200</v>
+      </c>
+      <c r="J62">
+        <v>269100</v>
+      </c>
+      <c r="K62">
+        <v>126500</v>
+      </c>
+      <c r="L62">
+        <v>369000</v>
+      </c>
+      <c r="M62">
+        <v>772100</v>
+      </c>
+      <c r="N62">
+        <v>20051300</v>
+      </c>
+      <c r="O62">
+        <v>10274200</v>
+      </c>
+      <c r="P62">
+        <v>22611800</v>
+      </c>
+      <c r="Q62">
+        <v>24294500</v>
+      </c>
+      <c r="R62">
+        <v>42849500</v>
+      </c>
+      <c r="S62">
+        <v>47910200</v>
+      </c>
+      <c r="T62">
+        <v>85083700</v>
+      </c>
+      <c r="U62">
+        <v>95158400</v>
+      </c>
+      <c r="W62">
+        <v>88417300</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>3600</v>
+      </c>
+      <c r="C63">
+        <v>3900</v>
+      </c>
+      <c r="D63">
+        <v>5100</v>
+      </c>
+      <c r="E63">
+        <v>13200</v>
+      </c>
+      <c r="F63">
+        <v>35300</v>
+      </c>
+      <c r="G63">
+        <v>49200</v>
+      </c>
+      <c r="H63">
+        <v>79700</v>
+      </c>
+      <c r="I63">
+        <v>121700</v>
+      </c>
+      <c r="J63">
+        <v>167400</v>
+      </c>
+      <c r="K63">
+        <v>269300</v>
+      </c>
+      <c r="L63">
+        <v>212100</v>
+      </c>
+      <c r="M63">
+        <v>336700</v>
+      </c>
+      <c r="N63">
+        <v>5178400</v>
+      </c>
+      <c r="O63">
+        <v>11383900</v>
+      </c>
+      <c r="P63">
+        <v>19936000</v>
+      </c>
+      <c r="Q63">
+        <v>23562200</v>
+      </c>
+      <c r="R63">
+        <v>20145500</v>
+      </c>
+      <c r="S63">
+        <v>60620200</v>
+      </c>
+      <c r="T63">
+        <v>87742100</v>
+      </c>
+      <c r="U63">
+        <v>111813900</v>
+      </c>
+      <c r="W63">
+        <v>114847700</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>3600</v>
+      </c>
+      <c r="C64">
+        <v>4800</v>
+      </c>
+      <c r="D64">
+        <v>5400</v>
+      </c>
+      <c r="E64">
+        <v>4600</v>
+      </c>
+      <c r="F64">
+        <v>51000</v>
+      </c>
+      <c r="G64">
+        <v>39100</v>
+      </c>
+      <c r="H64">
+        <v>65900</v>
+      </c>
+      <c r="I64">
+        <v>81600</v>
+      </c>
+      <c r="J64">
+        <v>152900</v>
+      </c>
+      <c r="K64">
+        <v>166900</v>
+      </c>
+      <c r="L64">
+        <v>181900</v>
+      </c>
+      <c r="M64">
+        <v>345900</v>
+      </c>
+      <c r="N64">
+        <v>4336000</v>
+      </c>
+      <c r="O64">
+        <v>8345200</v>
+      </c>
+      <c r="P64">
+        <v>13658400</v>
+      </c>
+      <c r="Q64">
+        <v>19064800</v>
+      </c>
+      <c r="R64">
+        <v>23584800</v>
+      </c>
+      <c r="S64">
+        <v>53309000</v>
+      </c>
+      <c r="T64">
+        <v>74107700</v>
+      </c>
+      <c r="U64">
+        <v>108139600</v>
+      </c>
+      <c r="W64">
+        <v>90168300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>3400</v>
+      </c>
+      <c r="C65">
+        <v>6500</v>
+      </c>
+      <c r="D65">
+        <v>4600</v>
+      </c>
+      <c r="E65">
+        <v>5100</v>
+      </c>
+      <c r="F65">
+        <v>24200</v>
+      </c>
+      <c r="G65">
+        <v>50900</v>
+      </c>
+      <c r="H65">
+        <v>313700</v>
+      </c>
+      <c r="I65">
+        <v>86100</v>
+      </c>
+      <c r="J65">
+        <v>135400</v>
+      </c>
+      <c r="K65">
+        <v>134200</v>
+      </c>
+      <c r="L65">
+        <v>239500</v>
+      </c>
+      <c r="M65">
+        <v>353700</v>
+      </c>
+      <c r="N65">
+        <v>6189600</v>
+      </c>
+      <c r="O65">
+        <v>7845200</v>
+      </c>
+      <c r="P65">
+        <v>12194000</v>
+      </c>
+      <c r="Q65">
+        <v>17878200</v>
+      </c>
+      <c r="R65">
+        <v>18649100</v>
+      </c>
+      <c r="S65">
+        <v>48053800</v>
+      </c>
+      <c r="T65">
+        <v>77567900</v>
+      </c>
+      <c r="U65">
+        <v>92130500</v>
+      </c>
+      <c r="W65">
+        <v>87993200</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>6100</v>
+      </c>
+      <c r="C66">
+        <v>4100</v>
+      </c>
+      <c r="D66">
+        <v>5200</v>
+      </c>
+      <c r="E66">
+        <v>5800</v>
+      </c>
+      <c r="F66">
+        <v>50200</v>
+      </c>
+      <c r="G66">
+        <v>48800</v>
+      </c>
+      <c r="H66">
+        <v>66600</v>
+      </c>
+      <c r="I66">
+        <v>81800</v>
+      </c>
+      <c r="J66">
+        <v>104600</v>
+      </c>
+      <c r="K66">
+        <v>186800</v>
+      </c>
+      <c r="L66">
+        <v>182400</v>
+      </c>
+      <c r="M66">
+        <v>275000</v>
+      </c>
+      <c r="N66">
+        <v>7331200</v>
+      </c>
+      <c r="O66">
+        <v>7573600</v>
+      </c>
+      <c r="P66">
+        <v>14842700</v>
+      </c>
+      <c r="Q66">
+        <v>25889300</v>
+      </c>
+      <c r="R66">
+        <v>28572000</v>
+      </c>
+      <c r="S66">
+        <v>54505400</v>
+      </c>
+      <c r="T66">
+        <v>79734400</v>
+      </c>
+      <c r="U66">
+        <v>90578800</v>
+      </c>
+      <c r="W66">
+        <v>88020300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3200</v>
+      </c>
+      <c r="C67">
+        <v>3800</v>
+      </c>
+      <c r="D67">
+        <v>3800</v>
+      </c>
+      <c r="E67">
+        <v>5800</v>
+      </c>
+      <c r="F67">
+        <v>22100</v>
+      </c>
+      <c r="G67">
+        <v>85600</v>
+      </c>
+      <c r="H67">
+        <v>113000</v>
+      </c>
+      <c r="I67">
+        <v>84000</v>
+      </c>
+      <c r="J67">
+        <v>132500</v>
+      </c>
+      <c r="K67">
+        <v>266000</v>
+      </c>
+      <c r="L67">
+        <v>193600</v>
+      </c>
+      <c r="M67">
+        <v>333000</v>
+      </c>
+      <c r="N67">
+        <v>5857500</v>
+      </c>
+      <c r="O67">
+        <v>8081100</v>
+      </c>
+      <c r="P67">
+        <v>16680100</v>
+      </c>
+      <c r="Q67">
+        <v>18645500</v>
+      </c>
+      <c r="R67">
+        <v>25239000</v>
+      </c>
+      <c r="S67">
+        <v>46419900</v>
+      </c>
+      <c r="T67">
+        <v>83701900</v>
+      </c>
+      <c r="U67">
+        <v>106018800</v>
+      </c>
+      <c r="W67">
+        <v>95329500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>3900</v>
+      </c>
+      <c r="C68">
+        <v>3500</v>
+      </c>
+      <c r="D68">
+        <v>4600</v>
+      </c>
+      <c r="E68">
+        <v>6200</v>
+      </c>
+      <c r="F68">
+        <v>35200</v>
+      </c>
+      <c r="G68">
+        <v>47800</v>
+      </c>
+      <c r="H68">
+        <v>61600</v>
+      </c>
+      <c r="I68">
+        <v>84600</v>
+      </c>
+      <c r="J68">
+        <v>196400</v>
+      </c>
+      <c r="K68">
+        <v>2074800</v>
+      </c>
+      <c r="L68">
+        <v>238300</v>
+      </c>
+      <c r="M68">
+        <v>363200</v>
+      </c>
+      <c r="N68">
+        <v>3018800</v>
+      </c>
+      <c r="O68">
+        <v>7704300</v>
+      </c>
+      <c r="P68">
+        <v>17296200</v>
+      </c>
+      <c r="Q68">
+        <v>19347800</v>
+      </c>
+      <c r="R68">
+        <v>41018900</v>
+      </c>
+      <c r="S68">
+        <v>49009600</v>
+      </c>
+      <c r="T68">
+        <v>70770700</v>
+      </c>
+      <c r="U68">
+        <v>89651600</v>
+      </c>
+      <c r="W68">
+        <v>101701800</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>3800</v>
+      </c>
+      <c r="C69">
+        <v>3300</v>
+      </c>
+      <c r="D69">
+        <v>8500</v>
+      </c>
+      <c r="E69">
+        <v>5300</v>
+      </c>
+      <c r="F69">
+        <v>37600</v>
+      </c>
+      <c r="G69">
+        <v>46300</v>
+      </c>
+      <c r="H69">
+        <v>93200</v>
+      </c>
+      <c r="I69">
+        <v>144000</v>
+      </c>
+      <c r="J69">
+        <v>138500</v>
+      </c>
+      <c r="K69">
+        <v>179200</v>
+      </c>
+      <c r="L69">
+        <v>199100</v>
+      </c>
+      <c r="M69">
+        <v>336800</v>
+      </c>
+      <c r="N69">
+        <v>9037100</v>
+      </c>
+      <c r="O69">
+        <v>8857300</v>
+      </c>
+      <c r="P69">
+        <v>15430600</v>
+      </c>
+      <c r="Q69">
+        <v>37438800</v>
+      </c>
+      <c r="R69">
+        <v>30087800</v>
+      </c>
+      <c r="S69">
+        <v>52236600</v>
+      </c>
+      <c r="T69">
+        <v>69817100</v>
+      </c>
+      <c r="U69">
+        <v>93945700</v>
+      </c>
+      <c r="W69">
+        <v>90521900</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>2800</v>
+      </c>
+      <c r="C70">
+        <v>3500</v>
+      </c>
+      <c r="D70">
+        <v>6300</v>
+      </c>
+      <c r="E70">
+        <v>6100</v>
+      </c>
+      <c r="F70">
+        <v>84000</v>
+      </c>
+      <c r="G70">
+        <v>46500</v>
+      </c>
+      <c r="H70">
+        <v>74700</v>
+      </c>
+      <c r="I70">
+        <v>80000</v>
+      </c>
+      <c r="J70">
+        <v>125800</v>
+      </c>
+      <c r="K70">
+        <v>344900</v>
+      </c>
+      <c r="L70">
+        <v>178800</v>
+      </c>
+      <c r="M70">
+        <v>364100</v>
+      </c>
+      <c r="N70">
+        <v>5446400</v>
+      </c>
+      <c r="O70">
+        <v>7881900</v>
+      </c>
+      <c r="P70">
+        <v>21056300</v>
+      </c>
+      <c r="Q70">
+        <v>33650500</v>
+      </c>
+      <c r="R70">
+        <v>23879100</v>
+      </c>
+      <c r="S70">
+        <v>52171600</v>
+      </c>
+      <c r="T70">
+        <v>70152000</v>
+      </c>
+      <c r="U70">
+        <v>94665400</v>
+      </c>
+      <c r="W70">
+        <v>93163100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2900</v>
+      </c>
+      <c r="C71">
+        <v>4600</v>
+      </c>
+      <c r="D71">
+        <v>5000</v>
+      </c>
+      <c r="E71">
+        <v>5400</v>
+      </c>
+      <c r="F71">
+        <v>38900</v>
+      </c>
+      <c r="G71">
+        <v>47800</v>
+      </c>
+      <c r="H71">
+        <v>62600</v>
+      </c>
+      <c r="I71">
+        <v>116800</v>
+      </c>
+      <c r="J71">
+        <v>110900</v>
+      </c>
+      <c r="K71">
+        <v>320100</v>
+      </c>
+      <c r="L71">
+        <v>218000</v>
+      </c>
+      <c r="M71">
+        <v>446000</v>
+      </c>
+      <c r="N71">
+        <v>5867600</v>
+      </c>
+      <c r="O71">
+        <v>8492200</v>
+      </c>
+      <c r="P71">
+        <v>12443800</v>
+      </c>
+      <c r="Q71">
+        <v>30139900</v>
+      </c>
+      <c r="R71">
+        <v>23762400</v>
+      </c>
+      <c r="S71">
+        <v>45910200</v>
+      </c>
+      <c r="T71">
+        <v>68940800</v>
+      </c>
+      <c r="U71">
+        <v>91630200</v>
+      </c>
+      <c r="W71">
+        <v>90825800</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>3300</v>
+      </c>
+      <c r="C72">
+        <v>7100</v>
+      </c>
+      <c r="D72">
+        <v>5400</v>
+      </c>
+      <c r="E72">
+        <v>5100</v>
+      </c>
+      <c r="F72">
+        <v>49200</v>
+      </c>
+      <c r="G72">
+        <v>104900</v>
+      </c>
+      <c r="H72">
+        <v>65600</v>
+      </c>
+      <c r="I72">
+        <v>79700</v>
+      </c>
+      <c r="J72">
+        <v>135200</v>
+      </c>
+      <c r="K72">
+        <v>725000</v>
+      </c>
+      <c r="L72">
+        <v>195900</v>
+      </c>
+      <c r="M72">
+        <v>452400</v>
+      </c>
+      <c r="N72">
+        <v>4932100</v>
+      </c>
+      <c r="O72">
+        <v>9074300</v>
+      </c>
+      <c r="P72">
+        <v>13336100</v>
+      </c>
+      <c r="Q72">
+        <v>19938600</v>
+      </c>
+      <c r="R72">
+        <v>24150600</v>
+      </c>
+      <c r="S72">
+        <v>44299800</v>
+      </c>
+      <c r="T72">
+        <v>79424500</v>
+      </c>
+      <c r="U72">
+        <v>89891700</v>
+      </c>
+      <c r="W72">
+        <v>91902100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>6700</v>
+      </c>
+      <c r="C73">
+        <v>6900</v>
+      </c>
+      <c r="D73">
+        <v>5800</v>
+      </c>
+      <c r="E73">
+        <v>9300</v>
+      </c>
+      <c r="F73">
+        <v>47100</v>
+      </c>
+      <c r="G73">
+        <v>51500</v>
+      </c>
+      <c r="H73">
+        <v>114600</v>
+      </c>
+      <c r="I73">
+        <v>100400</v>
+      </c>
+      <c r="J73">
+        <v>183600</v>
+      </c>
+      <c r="K73">
+        <v>802900</v>
+      </c>
+      <c r="L73">
+        <v>188400</v>
+      </c>
+      <c r="M73">
+        <v>437500</v>
+      </c>
+      <c r="N73">
+        <v>4422400</v>
+      </c>
+      <c r="O73">
+        <v>7841000</v>
+      </c>
+      <c r="P73">
+        <v>14609000</v>
+      </c>
+      <c r="Q73">
+        <v>19176200</v>
+      </c>
+      <c r="R73">
+        <v>36953600</v>
+      </c>
+      <c r="S73">
+        <v>44010100</v>
+      </c>
+      <c r="T73">
+        <v>104285700</v>
+      </c>
+      <c r="U73">
+        <v>94809100</v>
+      </c>
+      <c r="W73">
+        <v>91932900</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2700</v>
+      </c>
+      <c r="C74">
+        <v>4100</v>
+      </c>
+      <c r="D74">
+        <v>5500</v>
+      </c>
+      <c r="E74">
+        <v>5400</v>
+      </c>
+      <c r="F74">
+        <v>31700</v>
+      </c>
+      <c r="G74">
+        <v>49000</v>
+      </c>
+      <c r="H74">
+        <v>92700</v>
+      </c>
+      <c r="I74">
+        <v>77400</v>
+      </c>
+      <c r="J74">
+        <v>108400</v>
+      </c>
+      <c r="K74">
+        <v>242100</v>
+      </c>
+      <c r="L74">
+        <v>225800</v>
+      </c>
+      <c r="M74">
+        <v>377000</v>
+      </c>
+      <c r="N74">
+        <v>6373800</v>
+      </c>
+      <c r="O74">
+        <v>8160000</v>
+      </c>
+      <c r="P74">
+        <v>15668200</v>
+      </c>
+      <c r="Q74">
+        <v>41992200</v>
+      </c>
+      <c r="R74">
+        <v>32736100</v>
+      </c>
+      <c r="S74">
+        <v>45251100</v>
+      </c>
+      <c r="T74">
+        <v>67089200</v>
+      </c>
+      <c r="U74">
+        <v>102407800</v>
+      </c>
+      <c r="W74">
+        <v>93101700</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>5300</v>
+      </c>
+      <c r="C75">
+        <v>5500</v>
+      </c>
+      <c r="D75">
+        <v>4700</v>
+      </c>
+      <c r="E75">
+        <v>5700</v>
+      </c>
+      <c r="F75">
+        <v>31100</v>
+      </c>
+      <c r="G75">
+        <v>48000</v>
+      </c>
+      <c r="H75">
+        <v>67900</v>
+      </c>
+      <c r="I75">
+        <v>71700</v>
+      </c>
+      <c r="J75">
+        <v>111300</v>
+      </c>
+      <c r="K75">
+        <v>212300</v>
+      </c>
+      <c r="L75">
+        <v>391200</v>
+      </c>
+      <c r="M75">
+        <v>462600</v>
+      </c>
+      <c r="N75">
+        <v>8431000</v>
+      </c>
+      <c r="O75">
+        <v>15947400</v>
+      </c>
+      <c r="P75">
+        <v>13775300</v>
+      </c>
+      <c r="Q75">
+        <v>23816900</v>
+      </c>
+      <c r="R75">
+        <v>25869100</v>
+      </c>
+      <c r="S75">
+        <v>50298300</v>
+      </c>
+      <c r="T75">
+        <v>69372000</v>
+      </c>
+      <c r="U75">
+        <v>92277800</v>
+      </c>
+      <c r="W75">
+        <v>90820000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2800</v>
+      </c>
+      <c r="C76">
+        <v>4200</v>
+      </c>
+      <c r="D76">
+        <v>4400</v>
+      </c>
+      <c r="E76">
+        <v>6000</v>
+      </c>
+      <c r="F76">
+        <v>33700</v>
+      </c>
+      <c r="G76">
+        <v>54900</v>
+      </c>
+      <c r="H76">
+        <v>92100</v>
+      </c>
+      <c r="I76">
+        <v>118200</v>
+      </c>
+      <c r="J76">
+        <v>626900</v>
+      </c>
+      <c r="K76">
+        <v>159500</v>
+      </c>
+      <c r="L76">
+        <v>192500</v>
+      </c>
+      <c r="M76">
+        <v>374400</v>
+      </c>
+      <c r="N76">
+        <v>3302700</v>
+      </c>
+      <c r="O76">
+        <v>9266000</v>
+      </c>
+      <c r="P76">
+        <v>20296900</v>
+      </c>
+      <c r="Q76">
+        <v>18294700</v>
+      </c>
+      <c r="R76">
+        <v>21960400</v>
+      </c>
+      <c r="S76">
+        <v>52285900</v>
+      </c>
+      <c r="T76">
+        <v>67559900</v>
+      </c>
+      <c r="U76">
+        <v>109021300</v>
+      </c>
+      <c r="W76">
+        <v>93424400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2600</v>
+      </c>
+      <c r="C77">
+        <v>6100</v>
+      </c>
+      <c r="D77">
+        <v>5900</v>
+      </c>
+      <c r="E77">
+        <v>5700</v>
+      </c>
+      <c r="F77">
+        <v>25300</v>
+      </c>
+      <c r="G77">
+        <v>52100</v>
+      </c>
+      <c r="H77">
+        <v>92500</v>
+      </c>
+      <c r="I77">
+        <v>80000</v>
+      </c>
+      <c r="J77">
+        <v>108500</v>
+      </c>
+      <c r="K77">
+        <v>185900</v>
+      </c>
+      <c r="L77">
+        <v>183000</v>
+      </c>
+      <c r="M77">
+        <v>553400</v>
+      </c>
+      <c r="N77">
+        <v>9407300</v>
+      </c>
+      <c r="O77">
+        <v>12665500</v>
+      </c>
+      <c r="P77">
+        <v>17405900</v>
+      </c>
+      <c r="Q77">
+        <v>21437600</v>
+      </c>
+      <c r="R77">
+        <v>26607900</v>
+      </c>
+      <c r="S77">
+        <v>43918600</v>
+      </c>
+      <c r="T77">
+        <v>83805300</v>
+      </c>
+      <c r="U77">
+        <v>94050900</v>
+      </c>
+      <c r="W77">
+        <v>91232400</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>3200</v>
+      </c>
+      <c r="C78">
+        <v>5200</v>
+      </c>
+      <c r="D78">
+        <v>6300</v>
+      </c>
+      <c r="E78">
+        <v>5400</v>
+      </c>
+      <c r="F78">
+        <v>39400</v>
+      </c>
+      <c r="G78">
+        <v>47800</v>
+      </c>
+      <c r="H78">
+        <v>73500</v>
+      </c>
+      <c r="I78">
+        <v>83700</v>
+      </c>
+      <c r="J78">
+        <v>101300</v>
+      </c>
+      <c r="K78">
+        <v>192100</v>
+      </c>
+      <c r="L78">
+        <v>192300</v>
+      </c>
+      <c r="M78">
+        <v>364800</v>
+      </c>
+      <c r="N78">
+        <v>5070700</v>
+      </c>
+      <c r="O78">
+        <v>9003800</v>
+      </c>
+      <c r="P78">
+        <v>13629700</v>
+      </c>
+      <c r="Q78">
+        <v>18169000</v>
+      </c>
+      <c r="R78">
+        <v>25059700</v>
+      </c>
+      <c r="S78">
+        <v>49737900</v>
+      </c>
+      <c r="T78">
+        <v>86299500</v>
+      </c>
+      <c r="U78">
+        <v>103491600</v>
+      </c>
+      <c r="W78">
+        <v>93186100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2700</v>
+      </c>
+      <c r="C79">
+        <v>4000</v>
+      </c>
+      <c r="D79">
+        <v>3700</v>
+      </c>
+      <c r="E79">
+        <v>6300</v>
+      </c>
+      <c r="F79">
+        <v>38400</v>
+      </c>
+      <c r="G79">
+        <v>50800</v>
+      </c>
+      <c r="H79">
+        <v>75400</v>
+      </c>
+      <c r="I79">
+        <v>81400</v>
+      </c>
+      <c r="J79">
+        <v>104000</v>
+      </c>
+      <c r="K79">
+        <v>174400</v>
+      </c>
+      <c r="L79">
+        <v>241600</v>
+      </c>
+      <c r="M79">
+        <v>370800</v>
+      </c>
+      <c r="N79">
+        <v>5307900</v>
+      </c>
+      <c r="O79">
+        <v>7624000</v>
+      </c>
+      <c r="P79">
+        <v>12449900</v>
+      </c>
+      <c r="Q79">
+        <v>19176900</v>
+      </c>
+      <c r="R79">
+        <v>27500300</v>
+      </c>
+      <c r="S79">
+        <v>50359900</v>
+      </c>
+      <c r="T79">
+        <v>74569900</v>
+      </c>
+      <c r="U79">
+        <v>90682600</v>
+      </c>
+      <c r="W79">
+        <v>124650200</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2900</v>
+      </c>
+      <c r="C80">
+        <v>4600</v>
+      </c>
+      <c r="D80">
+        <v>6300</v>
+      </c>
+      <c r="E80">
+        <v>6100</v>
+      </c>
+      <c r="F80">
+        <v>34700</v>
+      </c>
+      <c r="G80">
+        <v>46500</v>
+      </c>
+      <c r="H80">
+        <v>98900</v>
+      </c>
+      <c r="I80">
+        <v>78600</v>
+      </c>
+      <c r="J80">
+        <v>118400</v>
+      </c>
+      <c r="K80">
+        <v>128900</v>
+      </c>
+      <c r="L80">
+        <v>190900</v>
+      </c>
+      <c r="M80">
+        <v>356300</v>
+      </c>
+      <c r="N80">
+        <v>5205200</v>
+      </c>
+      <c r="O80">
+        <v>6954700</v>
+      </c>
+      <c r="P80">
+        <v>12640200</v>
+      </c>
+      <c r="Q80">
+        <v>30742700</v>
+      </c>
+      <c r="R80">
+        <v>22587200</v>
+      </c>
+      <c r="S80">
+        <v>48210000</v>
+      </c>
+      <c r="T80">
+        <v>79837900</v>
+      </c>
+      <c r="U80">
+        <v>94811100</v>
+      </c>
+      <c r="W80">
+        <v>89502400</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>3000</v>
+      </c>
+      <c r="C81">
+        <v>4200</v>
+      </c>
+      <c r="D81">
+        <v>3800</v>
+      </c>
+      <c r="E81">
+        <v>5400</v>
+      </c>
+      <c r="F81">
+        <v>37000</v>
+      </c>
+      <c r="G81">
+        <v>174200</v>
+      </c>
+      <c r="H81">
+        <v>101300</v>
+      </c>
+      <c r="I81">
+        <v>81200</v>
+      </c>
+      <c r="J81">
+        <v>128900</v>
+      </c>
+      <c r="K81">
+        <v>170500</v>
+      </c>
+      <c r="L81">
+        <v>191900</v>
+      </c>
+      <c r="M81">
+        <v>356400</v>
+      </c>
+      <c r="N81">
+        <v>6691700</v>
+      </c>
+      <c r="O81">
+        <v>7428200</v>
+      </c>
+      <c r="P81">
+        <v>15131300</v>
+      </c>
+      <c r="Q81">
+        <v>75263600</v>
+      </c>
+      <c r="R81">
+        <v>23144800</v>
+      </c>
+      <c r="S81">
+        <v>62674900</v>
+      </c>
+      <c r="T81">
+        <v>65268300</v>
+      </c>
+      <c r="U81">
+        <v>105528600</v>
+      </c>
+      <c r="W81">
+        <v>96384300</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>4600</v>
+      </c>
+      <c r="C82">
+        <v>3500</v>
+      </c>
+      <c r="D82">
+        <v>11300</v>
+      </c>
+      <c r="E82">
+        <v>5300</v>
+      </c>
+      <c r="F82">
+        <v>44600</v>
+      </c>
+      <c r="G82">
+        <v>50200</v>
+      </c>
+      <c r="H82">
+        <v>68100</v>
+      </c>
+      <c r="I82">
+        <v>84600</v>
+      </c>
+      <c r="J82">
+        <v>171400</v>
+      </c>
+      <c r="K82">
+        <v>231700</v>
+      </c>
+      <c r="L82">
+        <v>195500</v>
+      </c>
+      <c r="M82">
+        <v>378800</v>
+      </c>
+      <c r="N82">
+        <v>6041300</v>
+      </c>
+      <c r="O82">
+        <v>8708800</v>
+      </c>
+      <c r="P82">
+        <v>14754200</v>
+      </c>
+      <c r="Q82">
+        <v>27374100</v>
+      </c>
+      <c r="R82">
+        <v>25436000</v>
+      </c>
+      <c r="S82">
+        <v>51506900</v>
+      </c>
+      <c r="T82">
+        <v>80728600</v>
+      </c>
+      <c r="U82">
+        <v>91353400</v>
+      </c>
+      <c r="W82">
+        <v>91546500</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>3100</v>
+      </c>
+      <c r="C83">
+        <v>4300</v>
+      </c>
+      <c r="D83">
+        <v>5500</v>
+      </c>
+      <c r="E83">
+        <v>4800</v>
+      </c>
+      <c r="F83">
+        <v>24900</v>
+      </c>
+      <c r="G83">
+        <v>73900</v>
+      </c>
+      <c r="H83">
+        <v>106200</v>
+      </c>
+      <c r="I83">
+        <v>84400</v>
+      </c>
+      <c r="J83">
+        <v>160400</v>
+      </c>
+      <c r="K83">
+        <v>213900</v>
+      </c>
+      <c r="L83">
+        <v>202500</v>
+      </c>
+      <c r="M83">
+        <v>602600</v>
+      </c>
+      <c r="N83">
+        <v>2785100</v>
+      </c>
+      <c r="O83">
+        <v>6301300</v>
+      </c>
+      <c r="P83">
+        <v>13387800</v>
+      </c>
+      <c r="Q83">
+        <v>18472800</v>
+      </c>
+      <c r="R83">
+        <v>23649000</v>
+      </c>
+      <c r="S83">
+        <v>45411200</v>
+      </c>
+      <c r="T83">
+        <v>84059100</v>
+      </c>
+      <c r="U83">
+        <v>95660700</v>
+      </c>
+      <c r="W83">
+        <v>95145900</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2800</v>
+      </c>
+      <c r="C84">
+        <v>6400</v>
+      </c>
+      <c r="D84">
+        <v>5500</v>
+      </c>
+      <c r="E84">
+        <v>5500</v>
+      </c>
+      <c r="F84">
+        <v>51000</v>
+      </c>
+      <c r="G84">
+        <v>322400</v>
+      </c>
+      <c r="H84">
+        <v>102800</v>
+      </c>
+      <c r="I84">
+        <v>80900</v>
+      </c>
+      <c r="J84">
+        <v>111500</v>
+      </c>
+      <c r="K84">
+        <v>129200</v>
+      </c>
+      <c r="L84">
+        <v>267000</v>
+      </c>
+      <c r="M84">
+        <v>348000</v>
+      </c>
+      <c r="N84">
+        <v>15933900</v>
+      </c>
+      <c r="O84">
+        <v>6730100</v>
+      </c>
+      <c r="P84">
+        <v>13310400</v>
+      </c>
+      <c r="Q84">
+        <v>18264000</v>
+      </c>
+      <c r="R84">
+        <v>25876500</v>
+      </c>
+      <c r="S84">
+        <v>50227700</v>
+      </c>
+      <c r="T84">
+        <v>67397300</v>
+      </c>
+      <c r="U84">
+        <v>93095700</v>
+      </c>
+      <c r="W84">
+        <v>108271500</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>4900</v>
+      </c>
+      <c r="C85">
+        <v>5900</v>
+      </c>
+      <c r="D85">
+        <v>5400</v>
+      </c>
+      <c r="E85">
+        <v>5900</v>
+      </c>
+      <c r="F85">
+        <v>33400</v>
+      </c>
+      <c r="G85">
+        <v>48000</v>
+      </c>
+      <c r="H85">
+        <v>85100</v>
+      </c>
+      <c r="I85">
+        <v>83400</v>
+      </c>
+      <c r="J85">
+        <v>155300</v>
+      </c>
+      <c r="K85">
+        <v>128500</v>
+      </c>
+      <c r="L85">
+        <v>202600</v>
+      </c>
+      <c r="M85">
+        <v>474200</v>
+      </c>
+      <c r="N85">
+        <v>4781300</v>
+      </c>
+      <c r="O85">
+        <v>7184500</v>
+      </c>
+      <c r="P85">
+        <v>13826100</v>
+      </c>
+      <c r="Q85">
+        <v>25814800</v>
+      </c>
+      <c r="R85">
+        <v>42147200</v>
+      </c>
+      <c r="S85">
+        <v>49739900</v>
+      </c>
+      <c r="T85">
+        <v>80067700</v>
+      </c>
+      <c r="U85">
+        <v>92940200</v>
+      </c>
+      <c r="W85">
+        <v>100204800</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2900</v>
+      </c>
+      <c r="C86">
+        <v>3700</v>
+      </c>
+      <c r="D86">
+        <v>8700</v>
+      </c>
+      <c r="E86">
+        <v>5800</v>
+      </c>
+      <c r="F86">
+        <v>33400</v>
+      </c>
+      <c r="G86">
+        <v>50200</v>
+      </c>
+      <c r="H86">
+        <v>72100</v>
+      </c>
+      <c r="I86">
+        <v>88900</v>
+      </c>
+      <c r="J86">
+        <v>159100</v>
+      </c>
+      <c r="K86">
+        <v>240600</v>
+      </c>
+      <c r="L86">
+        <v>181600</v>
+      </c>
+      <c r="M86">
+        <v>375300</v>
+      </c>
+      <c r="N86">
+        <v>4056000</v>
+      </c>
+      <c r="O86">
+        <v>7385700</v>
+      </c>
+      <c r="P86">
+        <v>13996000</v>
+      </c>
+      <c r="Q86">
+        <v>24334100</v>
+      </c>
+      <c r="R86">
+        <v>24687000</v>
+      </c>
+      <c r="S86">
+        <v>48701100</v>
+      </c>
+      <c r="T86">
+        <v>74918600</v>
+      </c>
+      <c r="U86">
+        <v>93335700</v>
+      </c>
+      <c r="W86">
+        <v>104444400</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>3000</v>
+      </c>
+      <c r="C87">
+        <v>4500</v>
+      </c>
+      <c r="D87">
+        <v>3500</v>
+      </c>
+      <c r="E87">
+        <v>6000</v>
+      </c>
+      <c r="F87">
+        <v>53700</v>
+      </c>
+      <c r="G87">
+        <v>81200</v>
+      </c>
+      <c r="H87">
+        <v>67000</v>
+      </c>
+      <c r="I87">
+        <v>83700</v>
+      </c>
+      <c r="J87">
+        <v>111700</v>
+      </c>
+      <c r="K87">
+        <v>158700</v>
+      </c>
+      <c r="L87">
+        <v>157700</v>
+      </c>
+      <c r="M87">
+        <v>386900</v>
+      </c>
+      <c r="N87">
+        <v>5144600</v>
+      </c>
+      <c r="O87">
+        <v>11636500</v>
+      </c>
+      <c r="P87">
+        <v>13847900</v>
+      </c>
+      <c r="Q87">
+        <v>22563100</v>
+      </c>
+      <c r="R87">
+        <v>24827000</v>
+      </c>
+      <c r="S87">
+        <v>49880800</v>
+      </c>
+      <c r="T87">
+        <v>81410700</v>
+      </c>
+      <c r="U87">
+        <v>103848500</v>
+      </c>
+      <c r="W87">
+        <v>93451500</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2900</v>
+      </c>
+      <c r="C88">
+        <v>5500</v>
+      </c>
+      <c r="D88">
+        <v>7100</v>
+      </c>
+      <c r="E88">
+        <v>5900</v>
+      </c>
+      <c r="F88">
+        <v>27800</v>
+      </c>
+      <c r="G88">
+        <v>99900</v>
+      </c>
+      <c r="H88">
+        <v>68100</v>
+      </c>
+      <c r="I88">
+        <v>90600</v>
+      </c>
+      <c r="J88">
+        <v>98400</v>
+      </c>
+      <c r="K88">
+        <v>128700</v>
+      </c>
+      <c r="L88">
+        <v>242300</v>
+      </c>
+      <c r="M88">
+        <v>802400</v>
+      </c>
+      <c r="N88">
+        <v>6613000</v>
+      </c>
+      <c r="O88">
+        <v>9659800</v>
+      </c>
+      <c r="P88">
+        <v>12366900</v>
+      </c>
+      <c r="Q88">
+        <v>19964900</v>
+      </c>
+      <c r="R88">
+        <v>20423600</v>
+      </c>
+      <c r="S88">
+        <v>45264800</v>
+      </c>
+      <c r="T88">
+        <v>85675600</v>
+      </c>
+      <c r="U88">
+        <v>101145800</v>
+      </c>
+      <c r="W88">
+        <v>95243100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>3600</v>
+      </c>
+      <c r="C89">
+        <v>3900</v>
+      </c>
+      <c r="D89">
+        <v>3900</v>
+      </c>
+      <c r="E89">
+        <v>5900</v>
+      </c>
+      <c r="F89">
+        <v>33000</v>
+      </c>
+      <c r="G89">
+        <v>74400</v>
+      </c>
+      <c r="H89">
+        <v>150500</v>
+      </c>
+      <c r="I89">
+        <v>86500</v>
+      </c>
+      <c r="J89">
+        <v>118800</v>
+      </c>
+      <c r="K89">
+        <v>238100</v>
+      </c>
+      <c r="L89">
+        <v>259300</v>
+      </c>
+      <c r="M89">
+        <v>519300</v>
+      </c>
+      <c r="N89">
+        <v>5119400</v>
+      </c>
+      <c r="O89">
+        <v>8796000</v>
+      </c>
+      <c r="P89">
+        <v>13505600</v>
+      </c>
+      <c r="Q89">
+        <v>26844800</v>
+      </c>
+      <c r="R89">
+        <v>19980800</v>
+      </c>
+      <c r="S89">
+        <v>53086600</v>
+      </c>
+      <c r="T89">
+        <v>68832800</v>
+      </c>
+      <c r="U89">
+        <v>90547500</v>
+      </c>
+      <c r="W89">
+        <v>92469400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2300</v>
+      </c>
+      <c r="C90">
+        <v>4400</v>
+      </c>
+      <c r="D90">
+        <v>7000</v>
+      </c>
+      <c r="E90">
+        <v>5300</v>
+      </c>
+      <c r="F90">
+        <v>31600</v>
+      </c>
+      <c r="G90">
+        <v>133000</v>
+      </c>
+      <c r="H90">
+        <v>52200</v>
+      </c>
+      <c r="I90">
+        <v>92600</v>
+      </c>
+      <c r="J90">
+        <v>109100</v>
+      </c>
+      <c r="K90">
+        <v>475400</v>
+      </c>
+      <c r="L90">
+        <v>197200</v>
+      </c>
+      <c r="M90">
+        <v>528400</v>
+      </c>
+      <c r="N90">
+        <v>2894600</v>
+      </c>
+      <c r="O90">
+        <v>8663200</v>
+      </c>
+      <c r="P90">
+        <v>21048300</v>
+      </c>
+      <c r="Q90">
+        <v>19784700</v>
+      </c>
+      <c r="R90">
+        <v>22716700</v>
+      </c>
+      <c r="S90">
+        <v>55203200</v>
+      </c>
+      <c r="T90">
+        <v>69717600</v>
+      </c>
+      <c r="U90">
+        <v>91449000</v>
+      </c>
+      <c r="W90">
+        <v>92541400</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>3800</v>
+      </c>
+      <c r="C91">
+        <v>5000</v>
+      </c>
+      <c r="D91">
+        <v>3800</v>
+      </c>
+      <c r="E91">
+        <v>5800</v>
+      </c>
+      <c r="F91">
+        <v>30100</v>
+      </c>
+      <c r="G91">
+        <v>51400</v>
+      </c>
+      <c r="H91">
+        <v>129200</v>
+      </c>
+      <c r="I91">
+        <v>90000</v>
+      </c>
+      <c r="J91">
+        <v>116400</v>
+      </c>
+      <c r="K91">
+        <v>469300</v>
+      </c>
+      <c r="L91">
+        <v>271400</v>
+      </c>
+      <c r="M91">
+        <v>402900</v>
+      </c>
+      <c r="N91">
+        <v>14768900</v>
+      </c>
+      <c r="O91">
+        <v>7893700</v>
+      </c>
+      <c r="P91">
+        <v>18874900</v>
+      </c>
+      <c r="Q91">
+        <v>19843200</v>
+      </c>
+      <c r="R91">
+        <v>53375700</v>
+      </c>
+      <c r="S91">
+        <v>47014100</v>
+      </c>
+      <c r="T91">
+        <v>67788800</v>
+      </c>
+      <c r="U91">
+        <v>95879500</v>
+      </c>
+      <c r="W91">
+        <v>92999900</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>3300</v>
+      </c>
+      <c r="C92">
+        <v>4300</v>
+      </c>
+      <c r="D92">
+        <v>4000</v>
+      </c>
+      <c r="E92">
+        <v>9600</v>
+      </c>
+      <c r="F92">
+        <v>33000</v>
+      </c>
+      <c r="G92">
+        <v>59200</v>
+      </c>
+      <c r="H92">
+        <v>124300</v>
+      </c>
+      <c r="I92">
+        <v>90500</v>
+      </c>
+      <c r="J92">
+        <v>123000</v>
+      </c>
+      <c r="K92">
+        <v>209600</v>
+      </c>
+      <c r="L92">
+        <v>188400</v>
+      </c>
+      <c r="M92">
+        <v>462300</v>
+      </c>
+      <c r="N92">
+        <v>4634200</v>
+      </c>
+      <c r="O92">
+        <v>7987100</v>
+      </c>
+      <c r="P92">
+        <v>12118200</v>
+      </c>
+      <c r="Q92">
+        <v>33626200</v>
+      </c>
+      <c r="R92">
+        <v>34507000</v>
+      </c>
+      <c r="S92">
+        <v>45881200</v>
+      </c>
+      <c r="T92">
+        <v>94990400</v>
+      </c>
+      <c r="U92">
+        <v>95056500</v>
+      </c>
+      <c r="W92">
+        <v>99500500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>3200</v>
+      </c>
+      <c r="C93">
+        <v>4100</v>
+      </c>
+      <c r="D93">
+        <v>4500</v>
+      </c>
+      <c r="E93">
+        <v>6200</v>
+      </c>
+      <c r="F93">
+        <v>32000</v>
+      </c>
+      <c r="G93">
+        <v>94900</v>
+      </c>
+      <c r="H93">
+        <v>73400</v>
+      </c>
+      <c r="I93">
+        <v>159600</v>
+      </c>
+      <c r="J93">
+        <v>172900</v>
+      </c>
+      <c r="K93">
+        <v>194000</v>
+      </c>
+      <c r="L93">
+        <v>332300</v>
+      </c>
+      <c r="M93">
+        <v>427400</v>
+      </c>
+      <c r="N93">
+        <v>5282100</v>
+      </c>
+      <c r="O93">
+        <v>7964500</v>
+      </c>
+      <c r="P93">
+        <v>12083900</v>
+      </c>
+      <c r="Q93">
+        <v>43130700</v>
+      </c>
+      <c r="R93">
+        <v>20355800</v>
+      </c>
+      <c r="S93">
+        <v>53633500</v>
+      </c>
+      <c r="T93">
+        <v>66530800</v>
+      </c>
+      <c r="U93">
+        <v>100096000</v>
+      </c>
+      <c r="W93">
+        <v>92279400</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>4200</v>
+      </c>
+      <c r="C94">
+        <v>4300</v>
+      </c>
+      <c r="D94">
+        <v>4500</v>
+      </c>
+      <c r="E94">
+        <v>5900</v>
+      </c>
+      <c r="F94">
+        <v>21000</v>
+      </c>
+      <c r="G94">
+        <v>57700</v>
+      </c>
+      <c r="H94">
+        <v>68100</v>
+      </c>
+      <c r="I94">
+        <v>92700</v>
+      </c>
+      <c r="J94">
+        <v>110100</v>
+      </c>
+      <c r="K94">
+        <v>187900</v>
+      </c>
+      <c r="L94">
+        <v>185500</v>
+      </c>
+      <c r="M94">
+        <v>549800</v>
+      </c>
+      <c r="N94">
+        <v>4472700</v>
+      </c>
+      <c r="O94">
+        <v>8269100</v>
+      </c>
+      <c r="P94">
+        <v>18155400</v>
+      </c>
+      <c r="Q94">
+        <v>19264800</v>
+      </c>
+      <c r="R94">
+        <v>20836700</v>
+      </c>
+      <c r="S94">
+        <v>52088500</v>
+      </c>
+      <c r="T94">
+        <v>89692000</v>
+      </c>
+      <c r="U94">
+        <v>105947700</v>
+      </c>
+      <c r="W94">
+        <v>97068800</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>3700</v>
+      </c>
+      <c r="C95">
+        <v>4900</v>
+      </c>
+      <c r="D95">
+        <v>6100</v>
+      </c>
+      <c r="E95">
+        <v>6300</v>
+      </c>
+      <c r="F95">
+        <v>31200</v>
+      </c>
+      <c r="G95">
+        <v>57900</v>
+      </c>
+      <c r="H95">
+        <v>78400</v>
+      </c>
+      <c r="I95">
+        <v>150800</v>
+      </c>
+      <c r="J95">
+        <v>141100</v>
+      </c>
+      <c r="K95">
+        <v>189100</v>
+      </c>
+      <c r="L95">
+        <v>197400</v>
+      </c>
+      <c r="M95">
+        <v>424100</v>
+      </c>
+      <c r="N95">
+        <v>9238800</v>
+      </c>
+      <c r="O95">
+        <v>37925900</v>
+      </c>
+      <c r="P95">
+        <v>15948100</v>
+      </c>
+      <c r="Q95">
+        <v>21841400</v>
+      </c>
+      <c r="R95">
+        <v>22948100</v>
+      </c>
+      <c r="S95">
+        <v>54026300</v>
+      </c>
+      <c r="T95">
+        <v>75102400</v>
+      </c>
+      <c r="U95">
+        <v>91377500</v>
+      </c>
+      <c r="W95">
+        <v>113194700</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2800</v>
+      </c>
+      <c r="C96">
+        <v>3600</v>
+      </c>
+      <c r="D96">
+        <v>8200</v>
+      </c>
+      <c r="E96">
+        <v>4800</v>
+      </c>
+      <c r="F96">
+        <v>32100</v>
+      </c>
+      <c r="G96">
+        <v>49100</v>
+      </c>
+      <c r="H96">
+        <v>51300</v>
+      </c>
+      <c r="I96">
+        <v>118800</v>
+      </c>
+      <c r="J96">
+        <v>159200</v>
+      </c>
+      <c r="K96">
+        <v>198200</v>
+      </c>
+      <c r="L96">
+        <v>183400</v>
+      </c>
+      <c r="M96">
+        <v>385900</v>
+      </c>
+      <c r="N96">
+        <v>4630200</v>
+      </c>
+      <c r="O96">
+        <v>10565900</v>
+      </c>
+      <c r="P96">
+        <v>13742900</v>
+      </c>
+      <c r="Q96">
+        <v>21795300</v>
+      </c>
+      <c r="R96">
+        <v>20820000</v>
+      </c>
+      <c r="S96">
+        <v>57736700</v>
+      </c>
+      <c r="T96">
+        <v>73403900</v>
+      </c>
+      <c r="U96">
+        <v>106713300</v>
+      </c>
+      <c r="W96">
+        <v>104914300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2800</v>
+      </c>
+      <c r="C97">
+        <v>3300</v>
+      </c>
+      <c r="D97">
+        <v>4400</v>
+      </c>
+      <c r="E97">
+        <v>6300</v>
+      </c>
+      <c r="F97">
+        <v>32800</v>
+      </c>
+      <c r="G97">
+        <v>58300</v>
+      </c>
+      <c r="H97">
+        <v>79300</v>
+      </c>
+      <c r="I97">
+        <v>101900</v>
+      </c>
+      <c r="J97">
+        <v>148000</v>
+      </c>
+      <c r="K97">
+        <v>207800</v>
+      </c>
+      <c r="L97">
+        <v>193300</v>
+      </c>
+      <c r="M97">
+        <v>351500</v>
+      </c>
+      <c r="N97">
+        <v>2767400</v>
+      </c>
+      <c r="O97">
+        <v>15086000</v>
+      </c>
+      <c r="P97">
+        <v>14631200</v>
+      </c>
+      <c r="Q97">
+        <v>22503200</v>
+      </c>
+      <c r="R97">
+        <v>52361800</v>
+      </c>
+      <c r="S97">
+        <v>51112500</v>
+      </c>
+      <c r="T97">
+        <v>89719800</v>
+      </c>
+      <c r="U97">
+        <v>100680800</v>
+      </c>
+      <c r="W97">
+        <v>104627600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>3100</v>
+      </c>
+      <c r="C98">
+        <v>5000</v>
+      </c>
+      <c r="D98">
+        <v>5200</v>
+      </c>
+      <c r="E98">
+        <v>6200</v>
+      </c>
+      <c r="F98">
+        <v>30900</v>
+      </c>
+      <c r="G98">
+        <v>57400</v>
+      </c>
+      <c r="H98">
+        <v>166700</v>
+      </c>
+      <c r="I98">
+        <v>136800</v>
+      </c>
+      <c r="J98">
+        <v>108000</v>
+      </c>
+      <c r="K98">
+        <v>277500</v>
+      </c>
+      <c r="L98">
+        <v>165300</v>
+      </c>
+      <c r="M98">
+        <v>518100</v>
+      </c>
+      <c r="N98">
+        <v>15100100</v>
+      </c>
+      <c r="O98">
+        <v>10578600</v>
+      </c>
+      <c r="P98">
+        <v>13855500</v>
+      </c>
+      <c r="Q98">
+        <v>39769900</v>
+      </c>
+      <c r="R98">
+        <v>25259000</v>
+      </c>
+      <c r="S98">
+        <v>44968600</v>
+      </c>
+      <c r="T98">
+        <v>67589200</v>
+      </c>
+      <c r="U98">
+        <v>110615800</v>
+      </c>
+      <c r="W98">
+        <v>92264600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>3100</v>
+      </c>
+      <c r="C99">
+        <v>4300</v>
+      </c>
+      <c r="D99">
+        <v>4800</v>
+      </c>
+      <c r="E99">
+        <v>5800</v>
+      </c>
+      <c r="F99">
+        <v>30000</v>
+      </c>
+      <c r="G99">
+        <v>51900</v>
+      </c>
+      <c r="H99">
+        <v>75000</v>
+      </c>
+      <c r="I99">
+        <v>134700</v>
+      </c>
+      <c r="J99">
+        <v>99600</v>
+      </c>
+      <c r="K99">
+        <v>413800</v>
+      </c>
+      <c r="L99">
+        <v>428200</v>
+      </c>
+      <c r="M99">
+        <v>421500</v>
+      </c>
+      <c r="N99">
+        <v>4373200</v>
+      </c>
+      <c r="O99">
+        <v>10541500</v>
+      </c>
+      <c r="P99">
+        <v>12507100</v>
+      </c>
+      <c r="Q99">
+        <v>23580100</v>
+      </c>
+      <c r="R99">
+        <v>19865800</v>
+      </c>
+      <c r="S99">
+        <v>44800400</v>
+      </c>
+      <c r="T99">
+        <v>90074300</v>
+      </c>
+      <c r="U99">
+        <v>120081400</v>
+      </c>
+      <c r="W99">
+        <v>113200600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>3400</v>
+      </c>
+      <c r="C100">
+        <v>4900</v>
+      </c>
+      <c r="D100">
+        <v>4600</v>
+      </c>
+      <c r="E100">
+        <v>5800</v>
+      </c>
+      <c r="F100">
+        <v>24300</v>
+      </c>
+      <c r="G100">
+        <v>54400</v>
+      </c>
+      <c r="H100">
+        <v>103000</v>
+      </c>
+      <c r="I100">
+        <v>112600</v>
+      </c>
+      <c r="J100">
+        <v>205100</v>
+      </c>
+      <c r="K100">
+        <v>295700</v>
+      </c>
+      <c r="L100">
+        <v>166800</v>
+      </c>
+      <c r="M100">
+        <v>764400</v>
+      </c>
+      <c r="N100">
+        <v>4569600</v>
+      </c>
+      <c r="O100">
+        <v>10681500</v>
+      </c>
+      <c r="P100">
+        <v>14470100</v>
+      </c>
+      <c r="Q100">
+        <v>21364300</v>
+      </c>
+      <c r="R100">
+        <v>23648400</v>
+      </c>
+      <c r="S100">
+        <v>47702600</v>
+      </c>
+      <c r="T100">
+        <v>73196000</v>
+      </c>
+      <c r="U100">
+        <v>93614300</v>
+      </c>
+      <c r="W100">
+        <v>103691300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3100</v>
+      </c>
+      <c r="C101">
+        <v>3900</v>
+      </c>
+      <c r="D101">
+        <v>4900</v>
+      </c>
+      <c r="E101">
+        <v>6900</v>
+      </c>
+      <c r="F101">
+        <v>29800</v>
+      </c>
+      <c r="G101">
+        <v>53100</v>
+      </c>
+      <c r="H101">
+        <v>92800</v>
+      </c>
+      <c r="I101">
+        <v>142200</v>
+      </c>
+      <c r="J101">
+        <v>84100</v>
+      </c>
+      <c r="K101">
+        <v>229300</v>
+      </c>
+      <c r="L101">
+        <v>202800</v>
+      </c>
+      <c r="M101">
+        <v>535400</v>
+      </c>
+      <c r="N101">
+        <v>3399700</v>
+      </c>
+      <c r="O101">
+        <v>10524200</v>
+      </c>
+      <c r="P101">
+        <v>13321900</v>
+      </c>
+      <c r="Q101">
+        <v>21222800</v>
+      </c>
+      <c r="R101">
+        <v>24858100</v>
+      </c>
+      <c r="S101">
+        <v>51403800</v>
+      </c>
+      <c r="T101">
+        <v>77393200</v>
+      </c>
+      <c r="U101">
+        <v>96049400</v>
+      </c>
+      <c r="W101">
+        <v>104930000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>3700</v>
+      </c>
+      <c r="C102">
+        <v>4300</v>
+      </c>
+      <c r="D102">
+        <v>7900</v>
+      </c>
+      <c r="E102">
+        <v>5600</v>
+      </c>
+      <c r="F102">
+        <v>25800</v>
+      </c>
+      <c r="G102">
+        <v>92600</v>
+      </c>
+      <c r="H102">
+        <v>77200</v>
+      </c>
+      <c r="I102">
+        <v>161200</v>
+      </c>
+      <c r="J102">
+        <v>110700</v>
+      </c>
+      <c r="K102">
+        <v>285000</v>
+      </c>
+      <c r="L102">
+        <v>266300</v>
+      </c>
+      <c r="M102">
+        <v>284900</v>
+      </c>
+      <c r="N102">
+        <v>4921600</v>
+      </c>
+      <c r="O102">
+        <v>10037700</v>
+      </c>
+      <c r="P102">
+        <v>13799000</v>
+      </c>
+      <c r="Q102">
+        <v>26668100</v>
+      </c>
+      <c r="R102">
+        <v>24260600</v>
+      </c>
+      <c r="S102">
+        <v>52976300</v>
+      </c>
+      <c r="T102">
+        <v>105959000</v>
+      </c>
+      <c r="U102">
+        <v>91666800</v>
+      </c>
+      <c r="W102">
+        <v>104850700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="3">
+        <f>AVERAGE(B3:B102)</f>
+        <v>2989</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" ref="C103:U103" si="0">AVERAGE(C3:C102)</f>
+        <v>4713</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="0"/>
+        <v>6008</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="0"/>
+        <v>5708</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="0"/>
+        <v>111689</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="0"/>
+        <v>56625</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="0"/>
+        <v>113852</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="0"/>
+        <v>106000</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="0"/>
+        <v>149460</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" si="0"/>
+        <v>249357</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="0"/>
+        <v>304702</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="0"/>
+        <v>440922</v>
+      </c>
+      <c r="N103" s="3">
+        <f t="shared" si="0"/>
+        <v>5768402</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="0"/>
+        <v>9644083</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="0"/>
+        <v>15760434</v>
+      </c>
+      <c r="Q103" s="3">
+        <f t="shared" si="0"/>
+        <v>25499403</v>
+      </c>
+      <c r="R103" s="3">
+        <f t="shared" si="0"/>
+        <v>25685137</v>
+      </c>
+      <c r="S103" s="3">
+        <f t="shared" si="0"/>
+        <v>50292163</v>
+      </c>
+      <c r="T103" s="3">
+        <f t="shared" si="0"/>
+        <v>82931965</v>
+      </c>
+      <c r="U103" s="3">
+        <f t="shared" si="0"/>
+        <v>99713020</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W103" s="3">
+        <f>AVERAGE(W3:W102)</f>
+        <v>95935842</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <f>B103/1000</f>
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" ref="C104:U105" si="1">C103/1000</f>
+        <v>4.7130000000000001</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="1"/>
+        <v>6.008</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="1"/>
+        <v>111.68899999999999</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="1"/>
+        <v>56.625</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="1"/>
+        <v>113.852</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="1"/>
+        <v>149.46</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="1"/>
+        <v>249.357</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="1"/>
+        <v>304.702</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="1"/>
+        <v>440.92200000000003</v>
+      </c>
+      <c r="N104" s="3">
+        <f t="shared" si="1"/>
+        <v>5768.402</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="1"/>
+        <v>9644.0830000000005</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" si="1"/>
+        <v>15760.433999999999</v>
+      </c>
+      <c r="Q104" s="3">
+        <f t="shared" si="1"/>
+        <v>25499.402999999998</v>
+      </c>
+      <c r="R104" s="3">
+        <f t="shared" si="1"/>
+        <v>25685.136999999999</v>
+      </c>
+      <c r="S104" s="3">
+        <f t="shared" si="1"/>
+        <v>50292.163</v>
+      </c>
+      <c r="T104" s="3">
+        <f t="shared" si="1"/>
+        <v>82931.964999999997</v>
+      </c>
+      <c r="U104" s="3">
+        <f t="shared" si="1"/>
+        <v>99713.02</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <f>B104/1000</f>
+        <v>2.9889999999999999E-3</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7130000000000002E-3</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.111689</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6625000000000002E-2</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11385200000000001</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.106</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14946000000000001</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.249357</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30470199999999997</v>
+      </c>
+      <c r="M105" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44092200000000004</v>
+      </c>
+      <c r="N105" s="3">
+        <f t="shared" si="1"/>
+        <v>5.768402</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="1"/>
+        <v>9.6440830000000002</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="1"/>
+        <v>15.760434</v>
+      </c>
+      <c r="Q105" s="3">
+        <f t="shared" si="1"/>
+        <v>25.499402999999997</v>
+      </c>
+      <c r="R105" s="3">
+        <f t="shared" si="1"/>
+        <v>25.685136999999997</v>
+      </c>
+      <c r="S105" s="3">
+        <f t="shared" si="1"/>
+        <v>50.292163000000002</v>
+      </c>
+      <c r="T105" s="3">
+        <f t="shared" si="1"/>
+        <v>82.931964999999991</v>
+      </c>
+      <c r="U105" s="3">
+        <f t="shared" si="1"/>
+        <v>99.71302</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="7">
+        <v>10</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7">
+        <v>50</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7">
+        <v>100</v>
+      </c>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7">
+        <v>500</v>
+      </c>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2">
+        <v>25</v>
+      </c>
+      <c r="C119" s="2">
+        <v>50</v>
+      </c>
+      <c r="D119" s="2">
+        <v>75</v>
+      </c>
+      <c r="E119" s="2">
+        <v>100</v>
+      </c>
+      <c r="F119" s="2">
+        <v>25</v>
+      </c>
+      <c r="G119" s="2">
+        <v>50</v>
+      </c>
+      <c r="H119" s="2">
+        <v>75</v>
+      </c>
+      <c r="I119" s="2">
+        <v>100</v>
+      </c>
+      <c r="J119" s="2">
+        <v>25</v>
+      </c>
+      <c r="K119" s="2">
+        <v>50</v>
+      </c>
+      <c r="L119" s="2">
+        <v>75</v>
+      </c>
+      <c r="M119" s="2">
+        <v>100</v>
+      </c>
+      <c r="N119" s="2">
+        <v>25</v>
+      </c>
+      <c r="O119" s="2">
+        <v>50</v>
+      </c>
+      <c r="P119" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>100</v>
+      </c>
+      <c r="R119" s="2">
+        <v>25</v>
+      </c>
+      <c r="S119" s="2">
+        <v>50</v>
+      </c>
+      <c r="T119" s="2">
+        <v>75</v>
+      </c>
+      <c r="U119" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2989</v>
+      </c>
+      <c r="C120" s="3">
+        <v>4713</v>
+      </c>
+      <c r="D120" s="3">
+        <v>6008</v>
+      </c>
+      <c r="E120" s="3">
+        <v>5708</v>
+      </c>
+      <c r="F120" s="3">
+        <v>111689</v>
+      </c>
+      <c r="G120" s="3">
+        <v>56625</v>
+      </c>
+      <c r="H120" s="3">
+        <v>113852</v>
+      </c>
+      <c r="I120" s="3">
+        <v>106000</v>
+      </c>
+      <c r="J120" s="3">
+        <v>149460</v>
+      </c>
+      <c r="K120" s="3">
+        <v>249357</v>
+      </c>
+      <c r="L120" s="3">
+        <v>304702</v>
+      </c>
+      <c r="M120" s="3">
+        <v>440922</v>
+      </c>
+      <c r="N120" s="3">
+        <v>5768402</v>
+      </c>
+      <c r="O120" s="3">
+        <v>9644083</v>
+      </c>
+      <c r="P120" s="3">
+        <v>15760434</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>25499403</v>
+      </c>
+      <c r="R120" s="3">
+        <v>25685137</v>
+      </c>
+      <c r="S120" s="3">
+        <v>50292163</v>
+      </c>
+      <c r="T120" s="3">
+        <v>82931965</v>
+      </c>
+      <c r="U120" s="3">
+        <v>99713020</v>
+      </c>
+      <c r="V120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4.7130000000000001</v>
+      </c>
+      <c r="D121" s="3">
+        <v>6.008</v>
+      </c>
+      <c r="E121" s="3">
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="F121" s="3">
+        <v>111.68899999999999</v>
+      </c>
+      <c r="G121" s="3">
+        <v>56.625</v>
+      </c>
+      <c r="H121" s="3">
+        <v>113.852</v>
+      </c>
+      <c r="I121" s="3">
+        <v>106</v>
+      </c>
+      <c r="J121" s="3">
+        <v>149.46</v>
+      </c>
+      <c r="K121" s="3">
+        <v>249.357</v>
+      </c>
+      <c r="L121" s="3">
+        <v>304.702</v>
+      </c>
+      <c r="M121" s="3">
+        <v>440.92200000000003</v>
+      </c>
+      <c r="N121" s="3">
+        <v>5768.402</v>
+      </c>
+      <c r="O121" s="3">
+        <v>9644.0830000000005</v>
+      </c>
+      <c r="P121" s="3">
+        <v>15760.433999999999</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>25499.402999999998</v>
+      </c>
+      <c r="R121" s="3">
+        <v>25685.136999999999</v>
+      </c>
+      <c r="S121" s="3">
+        <v>50292.163</v>
+      </c>
+      <c r="T121" s="3">
+        <v>82931.964999999997</v>
+      </c>
+      <c r="U121" s="3">
+        <v>99713.02</v>
+      </c>
+      <c r="V121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>2.9889999999999999E-3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4.7130000000000002E-3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="E122" s="3">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.111689</v>
+      </c>
+      <c r="G122" s="3">
+        <v>5.6625000000000002E-2</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0.11385200000000001</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0.14946000000000001</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0.249357</v>
+      </c>
+      <c r="L122" s="3">
+        <v>0.30470199999999997</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0.44092200000000004</v>
+      </c>
+      <c r="N122" s="3">
+        <v>5.768402</v>
+      </c>
+      <c r="O122" s="3">
+        <v>9.6440830000000002</v>
+      </c>
+      <c r="P122" s="3">
+        <v>15.760434</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>25.499402999999997</v>
+      </c>
+      <c r="R122" s="3">
+        <v>25.685136999999997</v>
+      </c>
+      <c r="S122" s="3">
+        <v>50.292163000000002</v>
+      </c>
+      <c r="T122" s="3">
+        <v>82.931964999999991</v>
+      </c>
+      <c r="U122" s="3">
+        <v>99.71302</v>
+      </c>
+      <c r="V122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="7">
+        <v>10</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7">
+        <v>50</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7">
+        <v>100</v>
+      </c>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7">
+        <v>500</v>
+      </c>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2">
+        <v>25</v>
+      </c>
+      <c r="C129" s="2">
+        <v>50</v>
+      </c>
+      <c r="D129" s="2">
+        <v>75</v>
+      </c>
+      <c r="E129" s="2">
+        <v>100</v>
+      </c>
+      <c r="F129" s="2">
+        <v>25</v>
+      </c>
+      <c r="G129" s="2">
+        <v>50</v>
+      </c>
+      <c r="H129" s="2">
+        <v>75</v>
+      </c>
+      <c r="I129" s="2">
+        <v>100</v>
+      </c>
+      <c r="J129" s="2">
+        <v>25</v>
+      </c>
+      <c r="K129" s="2">
+        <v>50</v>
+      </c>
+      <c r="L129" s="2">
+        <v>75</v>
+      </c>
+      <c r="M129" s="2">
+        <v>100</v>
+      </c>
+      <c r="N129" s="2">
+        <v>25</v>
+      </c>
+      <c r="O129" s="2">
+        <v>50</v>
+      </c>
+      <c r="P129" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>100</v>
+      </c>
+      <c r="R129" s="2">
+        <v>25</v>
+      </c>
+      <c r="S129" s="2">
+        <v>50</v>
+      </c>
+      <c r="T129" s="2">
+        <v>75</v>
+      </c>
+      <c r="U129" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5724</v>
+      </c>
+      <c r="C130" s="3">
+        <v>6088</v>
+      </c>
+      <c r="D130" s="3">
+        <v>5710</v>
+      </c>
+      <c r="E130" s="3">
+        <v>7930</v>
+      </c>
+      <c r="F130" s="3">
+        <v>59229</v>
+      </c>
+      <c r="G130" s="3">
+        <v>59264</v>
+      </c>
+      <c r="H130" s="3">
+        <v>78216</v>
+      </c>
+      <c r="I130" s="3">
+        <v>75646</v>
+      </c>
+      <c r="J130" s="3">
+        <v>194378</v>
+      </c>
+      <c r="K130" s="3">
+        <v>282349</v>
+      </c>
+      <c r="L130" s="3">
+        <v>238045</v>
+      </c>
+      <c r="M130" s="3">
+        <v>268161</v>
+      </c>
+      <c r="N130" s="3">
+        <v>5652840</v>
+      </c>
+      <c r="O130" s="3">
+        <v>6131235</v>
+      </c>
+      <c r="P130" s="3">
+        <v>5665695</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>6051254</v>
+      </c>
+      <c r="R130" s="3">
+        <v>22659104</v>
+      </c>
+      <c r="S130" s="3">
+        <v>22371098</v>
+      </c>
+      <c r="T130" s="3">
+        <v>22706849</v>
+      </c>
+      <c r="U130" s="3">
+        <v>23549993</v>
+      </c>
+      <c r="V130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="C131" s="3">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="D131" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="E131" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="F131" s="3">
+        <v>59.228999999999999</v>
+      </c>
+      <c r="G131" s="3">
+        <v>59.264000000000003</v>
+      </c>
+      <c r="H131" s="3">
+        <v>78.215999999999994</v>
+      </c>
+      <c r="I131" s="3">
+        <v>75.646000000000001</v>
+      </c>
+      <c r="J131" s="3">
+        <v>194.37799999999999</v>
+      </c>
+      <c r="K131" s="3">
+        <v>282.34899999999999</v>
+      </c>
+      <c r="L131" s="3">
+        <v>238.04499999999999</v>
+      </c>
+      <c r="M131" s="3">
+        <v>268.161</v>
+      </c>
+      <c r="N131" s="3">
+        <v>5652.84</v>
+      </c>
+      <c r="O131" s="3">
+        <v>6131.2349999999997</v>
+      </c>
+      <c r="P131" s="3">
+        <v>5665.6949999999997</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>6051.2539999999999</v>
+      </c>
+      <c r="R131" s="3">
+        <v>22659.103999999999</v>
+      </c>
+      <c r="S131" s="3">
+        <v>22371.098000000002</v>
+      </c>
+      <c r="T131" s="3">
+        <v>22706.848999999998</v>
+      </c>
+      <c r="U131" s="3">
+        <v>23549.992999999999</v>
+      </c>
+      <c r="V131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="C132" s="3">
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="E132" s="3">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="F132" s="3">
+        <v>5.9228999999999997E-2</v>
+      </c>
+      <c r="G132" s="3">
+        <v>5.9264000000000004E-2</v>
+      </c>
+      <c r="H132" s="3">
+        <v>7.8215999999999994E-2</v>
+      </c>
+      <c r="I132" s="3">
+        <v>7.5646000000000005E-2</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0.194378</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0.28234900000000002</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0.23804499999999998</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0.26816099999999998</v>
+      </c>
+      <c r="N132" s="3">
+        <v>5.6528400000000003</v>
+      </c>
+      <c r="O132" s="3">
+        <v>6.1312349999999993</v>
+      </c>
+      <c r="P132" s="3">
+        <v>5.6656949999999995</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>6.0512540000000001</v>
+      </c>
+      <c r="R132" s="3">
+        <v>22.659103999999999</v>
+      </c>
+      <c r="S132" s="3">
+        <v>22.371098000000003</v>
+      </c>
+      <c r="T132" s="3">
+        <v>22.706848999999998</v>
+      </c>
+      <c r="U132" s="3">
+        <v>23.549992999999997</v>
+      </c>
+      <c r="V132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A108:V112"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="A127:U127"/>
+    <mergeCell ref="A117:U117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/POMIARY 2 PROJEKT.xlsx
+++ b/POMIARY 2 PROJEKT.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48503\Desktop\cpp\4-th sem - DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65583631-A2A9-4840-92E5-7BB80394828B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187DA94-EBB9-4AC9-800A-3F8FE29730DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIX" sheetId="1" r:id="rId1"/>
     <sheet name="LIST" sheetId="2" r:id="rId2"/>
+    <sheet name="Wykresy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
   <si>
     <t>ILOSC WIERZCHOLKOW</t>
   </si>
@@ -56,6 +57,27 @@
   </si>
   <si>
     <t>LISTA</t>
+  </si>
+  <si>
+    <t>Ilosc wierzchołków</t>
+  </si>
+  <si>
+    <t>ilosc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Macierz</t>
   </si>
 </sst>
 </file>
@@ -121,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -130,13 +152,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -154,6 +179,7455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1"/>
+              <a:t>25%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7268951766590372E-2"/>
+          <c:y val="9.0936390992986171E-2"/>
+          <c:w val="0.87791238907019331"/>
+          <c:h val="0.81494740439606195"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$D$25:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$E$25:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9889999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.111689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14946000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.768402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.685136999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73B3-4F9C-9D63-A8F8843AE2C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$F$25:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$G$25:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7239999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9228999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.194378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6528400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.659103999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73B3-4F9C-9D63-A8F8843AE2C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1771753664"/>
+        <c:axId val="1805582128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1771753664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>Ilosc wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39755436743672773"/>
+              <c:y val="0.92468962241157038"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1805582128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1805582128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.317757799039488E-2"/>
+              <c:y val="0.42662810336867152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771753664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81551825992289351"/>
+          <c:y val="0.66078523064384342"/>
+          <c:w val="0.15357184518601841"/>
+          <c:h val="0.12368117184971329"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1"/>
+              <a:t>50%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7268951766590372E-2"/>
+          <c:y val="9.0936390992986171E-2"/>
+          <c:w val="0.87791238907019331"/>
+          <c:h val="0.81494740439606195"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$H$25:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$I$25:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7130000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6625000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6440830000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.292163000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A6E-4774-A96A-5C4A62580B06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$J$25:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$K$25:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0879999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9264000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28234900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1312349999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.371098000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A6E-4774-A96A-5C4A62580B06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1771753664"/>
+        <c:axId val="1805582128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1771753664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>Ilosc wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39755436743672773"/>
+              <c:y val="0.92468962241157038"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1805582128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1805582128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.317757799039488E-2"/>
+              <c:y val="0.42662810336867152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771753664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81551825992289351"/>
+          <c:y val="0.66078523064384342"/>
+          <c:w val="0.15357184518601841"/>
+          <c:h val="0.12368117184971329"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1"/>
+              <a:t>75%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7268951766590372E-2"/>
+          <c:y val="9.0936390992986171E-2"/>
+          <c:w val="0.87791238907019331"/>
+          <c:h val="0.81494740439606195"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$L$25:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$M$25:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0080000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11385200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30470199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.760434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.931964999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-659D-4E07-B713-5CE4C46DBBA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$N$25:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$O$25:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8215999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23804499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6656949999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.706848999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-659D-4E07-B713-5CE4C46DBBA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1771753664"/>
+        <c:axId val="1805582128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1771753664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>Ilosc wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39755436743672773"/>
+              <c:y val="0.92468962241157038"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1805582128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1805582128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.317757799039488E-2"/>
+              <c:y val="0.42662810336867152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771753664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81551825992289351"/>
+          <c:y val="0.66078523064384342"/>
+          <c:w val="0.15357184518601841"/>
+          <c:h val="0.12368117184971329"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1"/>
+              <a:t>100%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7268951766590372E-2"/>
+          <c:y val="9.0936390992986171E-2"/>
+          <c:w val="0.87791238907019331"/>
+          <c:h val="0.81494740439606195"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$P$25:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$Q$25:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7080000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44092200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.499402999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.935841999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D51-459E-8909-7E3C00F93F09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$R$25:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$S$25:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.9299999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5646000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26816099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0512540000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.549992999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D51-459E-8909-7E3C00F93F09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1771753664"/>
+        <c:axId val="1805582128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1771753664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>Ilosc wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39755436743672773"/>
+              <c:y val="0.92468962241157038"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1805582128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1805582128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.317757799039488E-2"/>
+              <c:y val="0.42662810336867152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771753664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81551825992289351"/>
+          <c:y val="0.66078523064384342"/>
+          <c:w val="0.15357184518601841"/>
+          <c:h val="0.12368117184971329"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>LISTA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>25%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$V$28:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$W$28:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9889999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.111689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14946000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.768402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.685136999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B3A-40CB-A3C5-95AB8F5E8011}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$X$28:$X$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$Y$28:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7130000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6625000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6440830000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.292163000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B3A-40CB-A3C5-95AB8F5E8011}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>75%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$Z$28:$Z$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$AA$28:$AA$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0080000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11385200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30470199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.760434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.931964999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B3A-40CB-A3C5-95AB8F5E8011}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$AB$28:$AB$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$AC$28:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7080000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44092200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.499402999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.935841999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0B3A-40CB-A3C5-95AB8F5E8011}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1818126064"/>
+        <c:axId val="1805598768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1818126064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>Ilość wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1805598768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1805598768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818126064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>MACIERZ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>25%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$U$56:$U$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$V$56:$V$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7239999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9228999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.194378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6528400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.659103999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FDB-4BF2-BE15-EEBE2E1C4325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$W$56:$W$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$X$56:$X$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0879999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9264000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28234900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1312349999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.371098000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FDB-4BF2-BE15-EEBE2E1C4325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>75%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$Y$56:$Y$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$Z$56:$Z$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8215999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23804499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6656949999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.706848999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9FDB-4BF2-BE15-EEBE2E1C4325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wykresy!$AA$56:$AA$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykresy!$AB$56:$AB$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.9299999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5646000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26816099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0512540000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.549992999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9FDB-4BF2-BE15-EEBE2E1C4325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1946059920"/>
+        <c:axId val="1938194752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1946059920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>Ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938194752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1938194752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="1"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946059920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FA5D7D-367A-4934-ADD8-223B4A7342CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D5632D-D590-4E5A-8F6C-F37551E37267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C914A470-A92B-47F8-94A2-AE31E7283255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8279087-6234-4728-A456-D2426B6D6CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B7BB23-5F08-474E-B15F-1424928BA007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599513</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABCD749-A1A7-4ADC-8A7D-CC8E697C0BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,8 +7895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:V112"/>
+    <sheetView topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7290,16 +14764,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B108:E108"/>
     <mergeCell ref="F108:I108"/>
     <mergeCell ref="J108:M108"/>
     <mergeCell ref="N108:Q108"/>
     <mergeCell ref="R108:U108"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7308,10 +14782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06CFCF0-B8B3-4136-945A-C41943637878}">
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="O122" sqref="O122"/>
+    <sheetView topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="W105" sqref="W105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7320,6 +14794,7 @@
     <col min="21" max="21" width="12.140625" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -13532,7 +21007,7 @@
         <v>104914300</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2800</v>
       </c>
@@ -13597,7 +21072,7 @@
         <v>104627600</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>3100</v>
       </c>
@@ -13662,7 +21137,7 @@
         <v>92264600</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>3100</v>
       </c>
@@ -13727,7 +21202,7 @@
         <v>113200600</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>3400</v>
       </c>
@@ -13792,7 +21267,7 @@
         <v>103691300</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>3100</v>
       </c>
@@ -13857,7 +21332,7 @@
         <v>104930000</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>3700</v>
       </c>
@@ -13922,7 +21397,7 @@
         <v>104850700</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -13959,7 +21434,7 @@
         <v>106000</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J3:J102)</f>
         <v>149460</v>
       </c>
       <c r="K103" s="3">
@@ -14014,7 +21489,7 @@
         <v>95935842</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <f>B103/1000</f>
         <v>2.9889999999999999</v>
@@ -14099,7 +21574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <f>B104/1000</f>
         <v>2.9889999999999999E-3</v>
@@ -14183,151 +21658,158 @@
       <c r="V105" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
+      <c r="W105" s="3">
+        <f>W103/1000000</f>
+        <v>95.935841999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="X110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -14628,29 +22110,29 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6"/>
-      <c r="T127" s="6"/>
-      <c r="U127" s="6"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
@@ -14952,17 +22434,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A108:V112"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
     <mergeCell ref="A127:U127"/>
     <mergeCell ref="A117:U117"/>
     <mergeCell ref="B118:E118"/>
@@ -14970,7 +22441,1559 @@
     <mergeCell ref="J118:M118"/>
     <mergeCell ref="N118:Q118"/>
     <mergeCell ref="R118:U118"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="A108:V112"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D8F40-9671-4860-BB30-67249364D1E4}">
+  <dimension ref="C1:AC60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG58" sqref="AG58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>50</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
+        <v>100</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="R6">
+        <v>75</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>50</v>
+      </c>
+      <c r="V6">
+        <v>75</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2989</v>
+      </c>
+      <c r="E7">
+        <v>4713</v>
+      </c>
+      <c r="F7">
+        <v>6008</v>
+      </c>
+      <c r="G7">
+        <v>5708</v>
+      </c>
+      <c r="H7">
+        <v>111689</v>
+      </c>
+      <c r="I7">
+        <v>56625</v>
+      </c>
+      <c r="J7">
+        <v>113852</v>
+      </c>
+      <c r="K7">
+        <v>106000</v>
+      </c>
+      <c r="L7">
+        <v>149460</v>
+      </c>
+      <c r="M7">
+        <v>249357</v>
+      </c>
+      <c r="N7">
+        <v>304702</v>
+      </c>
+      <c r="O7">
+        <v>440922</v>
+      </c>
+      <c r="P7">
+        <v>5768402</v>
+      </c>
+      <c r="Q7">
+        <v>9644083</v>
+      </c>
+      <c r="R7">
+        <v>15760434</v>
+      </c>
+      <c r="S7">
+        <v>25499403</v>
+      </c>
+      <c r="T7">
+        <v>25685137</v>
+      </c>
+      <c r="U7">
+        <v>50292163</v>
+      </c>
+      <c r="V7">
+        <v>82931965</v>
+      </c>
+      <c r="W7">
+        <v>99713020</v>
+      </c>
+      <c r="X7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="E8">
+        <v>4.7130000000000001</v>
+      </c>
+      <c r="F8">
+        <v>6.008</v>
+      </c>
+      <c r="G8">
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="H8">
+        <v>111.68899999999999</v>
+      </c>
+      <c r="I8">
+        <v>56.625</v>
+      </c>
+      <c r="J8">
+        <v>113.852</v>
+      </c>
+      <c r="K8">
+        <v>106</v>
+      </c>
+      <c r="L8">
+        <v>149.46</v>
+      </c>
+      <c r="M8">
+        <v>249.357</v>
+      </c>
+      <c r="N8">
+        <v>304.702</v>
+      </c>
+      <c r="O8">
+        <v>440.92200000000003</v>
+      </c>
+      <c r="P8">
+        <v>5768.402</v>
+      </c>
+      <c r="Q8">
+        <v>9644.0830000000005</v>
+      </c>
+      <c r="R8">
+        <v>15760.433999999999</v>
+      </c>
+      <c r="S8">
+        <v>25499.402999999998</v>
+      </c>
+      <c r="T8">
+        <v>25685.136999999999</v>
+      </c>
+      <c r="U8">
+        <v>50292.163</v>
+      </c>
+      <c r="V8">
+        <v>82931.964999999997</v>
+      </c>
+      <c r="W8">
+        <v>99713.02</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2.9889999999999999E-3</v>
+      </c>
+      <c r="E9">
+        <v>4.7130000000000002E-3</v>
+      </c>
+      <c r="F9">
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="H9">
+        <v>0.111689</v>
+      </c>
+      <c r="I9">
+        <v>5.6625000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.11385200000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.106</v>
+      </c>
+      <c r="L9">
+        <v>0.14946000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.249357</v>
+      </c>
+      <c r="N9">
+        <v>0.30470199999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.44092200000000004</v>
+      </c>
+      <c r="P9">
+        <v>5.768402</v>
+      </c>
+      <c r="Q9">
+        <v>9.6440830000000002</v>
+      </c>
+      <c r="R9">
+        <v>15.760434</v>
+      </c>
+      <c r="S9">
+        <v>25.499402999999997</v>
+      </c>
+      <c r="T9">
+        <v>25.685136999999997</v>
+      </c>
+      <c r="U9">
+        <v>50.292163000000002</v>
+      </c>
+      <c r="V9">
+        <v>82.931964999999991</v>
+      </c>
+      <c r="W9">
+        <v>99.71302</v>
+      </c>
+      <c r="X9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>95.935841999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>50</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
+        <v>100</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <v>75</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>25</v>
+      </c>
+      <c r="U16">
+        <v>50</v>
+      </c>
+      <c r="V16">
+        <v>75</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5724</v>
+      </c>
+      <c r="E17">
+        <v>6088</v>
+      </c>
+      <c r="F17">
+        <v>5710</v>
+      </c>
+      <c r="G17">
+        <v>7930</v>
+      </c>
+      <c r="H17">
+        <v>59229</v>
+      </c>
+      <c r="I17">
+        <v>59264</v>
+      </c>
+      <c r="J17">
+        <v>78216</v>
+      </c>
+      <c r="K17">
+        <v>75646</v>
+      </c>
+      <c r="L17">
+        <v>194378</v>
+      </c>
+      <c r="M17">
+        <v>282349</v>
+      </c>
+      <c r="N17">
+        <v>238045</v>
+      </c>
+      <c r="O17">
+        <v>268161</v>
+      </c>
+      <c r="P17">
+        <v>5652840</v>
+      </c>
+      <c r="Q17">
+        <v>6131235</v>
+      </c>
+      <c r="R17">
+        <v>5665695</v>
+      </c>
+      <c r="S17">
+        <v>6051254</v>
+      </c>
+      <c r="T17">
+        <v>22659104</v>
+      </c>
+      <c r="U17">
+        <v>22371098</v>
+      </c>
+      <c r="V17">
+        <v>22706849</v>
+      </c>
+      <c r="W17">
+        <v>23549993</v>
+      </c>
+      <c r="X17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="E18">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="F18">
+        <v>5.71</v>
+      </c>
+      <c r="G18">
+        <v>7.93</v>
+      </c>
+      <c r="H18">
+        <v>59.228999999999999</v>
+      </c>
+      <c r="I18">
+        <v>59.264000000000003</v>
+      </c>
+      <c r="J18">
+        <v>78.215999999999994</v>
+      </c>
+      <c r="K18">
+        <v>75.646000000000001</v>
+      </c>
+      <c r="L18">
+        <v>194.37799999999999</v>
+      </c>
+      <c r="M18">
+        <v>282.34899999999999</v>
+      </c>
+      <c r="N18">
+        <v>238.04499999999999</v>
+      </c>
+      <c r="O18">
+        <v>268.161</v>
+      </c>
+      <c r="P18">
+        <v>5652.84</v>
+      </c>
+      <c r="Q18">
+        <v>6131.2349999999997</v>
+      </c>
+      <c r="R18">
+        <v>5665.6949999999997</v>
+      </c>
+      <c r="S18">
+        <v>6051.2539999999999</v>
+      </c>
+      <c r="T18">
+        <v>22659.103999999999</v>
+      </c>
+      <c r="U18">
+        <v>22371.098000000002</v>
+      </c>
+      <c r="V18">
+        <v>22706.848999999998</v>
+      </c>
+      <c r="W18">
+        <v>23549.992999999999</v>
+      </c>
+      <c r="X18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="E19">
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="F19">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="G19">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="H19">
+        <v>5.9228999999999997E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.9264000000000004E-2</v>
+      </c>
+      <c r="J19">
+        <v>7.8215999999999994E-2</v>
+      </c>
+      <c r="K19">
+        <v>7.5646000000000005E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.194378</v>
+      </c>
+      <c r="M19">
+        <v>0.28234900000000002</v>
+      </c>
+      <c r="N19">
+        <v>0.23804499999999998</v>
+      </c>
+      <c r="O19">
+        <v>0.26816099999999998</v>
+      </c>
+      <c r="P19">
+        <v>5.6528400000000003</v>
+      </c>
+      <c r="Q19">
+        <v>6.1312349999999993</v>
+      </c>
+      <c r="R19">
+        <v>5.6656949999999995</v>
+      </c>
+      <c r="S19">
+        <v>6.0512540000000001</v>
+      </c>
+      <c r="T19">
+        <v>22.659103999999999</v>
+      </c>
+      <c r="U19">
+        <v>22.371098000000003</v>
+      </c>
+      <c r="V19">
+        <v>22.706848999999998</v>
+      </c>
+      <c r="W19">
+        <v>23.549992999999997</v>
+      </c>
+      <c r="X19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D21" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>2.9889999999999999E-3</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>4.7130000000000002E-3</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="8"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>0.111689</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>5.9228999999999997E-2</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>5.6625000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>5.9264000000000004E-2</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>0.11385200000000001</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <v>7.8215999999999994E-2</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>0.106</v>
+      </c>
+      <c r="R26">
+        <v>50</v>
+      </c>
+      <c r="S26">
+        <v>7.5646000000000005E-2</v>
+      </c>
+      <c r="V26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>0.14946000000000001</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>0.194378</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>0.249357</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>0.28234900000000002</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>0.30470199999999997</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>0.23804499999999998</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>0.44092200000000004</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+      <c r="S27">
+        <v>0.26816099999999998</v>
+      </c>
+      <c r="V27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>5.768402</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="G28">
+        <v>5.6528400000000003</v>
+      </c>
+      <c r="H28">
+        <v>500</v>
+      </c>
+      <c r="I28">
+        <v>9.6440830000000002</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+      <c r="K28">
+        <v>6.1312349999999993</v>
+      </c>
+      <c r="L28">
+        <v>500</v>
+      </c>
+      <c r="M28">
+        <v>15.760434</v>
+      </c>
+      <c r="N28">
+        <v>500</v>
+      </c>
+      <c r="O28">
+        <v>5.6656949999999995</v>
+      </c>
+      <c r="P28">
+        <v>500</v>
+      </c>
+      <c r="Q28">
+        <v>25.499402999999997</v>
+      </c>
+      <c r="R28">
+        <v>500</v>
+      </c>
+      <c r="S28">
+        <v>6.0512540000000001</v>
+      </c>
+      <c r="V28">
+        <v>10</v>
+      </c>
+      <c r="W28">
+        <v>2.9889999999999999E-3</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>4.7130000000000002E-3</v>
+      </c>
+      <c r="Z28">
+        <v>10</v>
+      </c>
+      <c r="AA28">
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="AB28">
+        <v>10</v>
+      </c>
+      <c r="AC28">
+        <v>5.7080000000000004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>25.685136999999997</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>22.659103999999999</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="I29">
+        <v>50.292163000000002</v>
+      </c>
+      <c r="J29">
+        <v>1000</v>
+      </c>
+      <c r="K29">
+        <v>22.371098000000003</v>
+      </c>
+      <c r="L29">
+        <v>1000</v>
+      </c>
+      <c r="M29">
+        <v>82.931964999999991</v>
+      </c>
+      <c r="N29">
+        <v>1000</v>
+      </c>
+      <c r="O29">
+        <v>22.706848999999998</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
+      </c>
+      <c r="Q29">
+        <v>95.935841999999994</v>
+      </c>
+      <c r="R29">
+        <v>1000</v>
+      </c>
+      <c r="S29">
+        <v>23.549992999999997</v>
+      </c>
+      <c r="V29">
+        <v>50</v>
+      </c>
+      <c r="W29">
+        <v>0.111689</v>
+      </c>
+      <c r="X29">
+        <v>50</v>
+      </c>
+      <c r="Y29">
+        <v>5.6625000000000002E-2</v>
+      </c>
+      <c r="Z29">
+        <v>50</v>
+      </c>
+      <c r="AA29">
+        <v>0.11385200000000001</v>
+      </c>
+      <c r="AB29">
+        <v>50</v>
+      </c>
+      <c r="AC29">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>100</v>
+      </c>
+      <c r="W30">
+        <v>0.14946000000000001</v>
+      </c>
+      <c r="X30">
+        <v>100</v>
+      </c>
+      <c r="Y30">
+        <v>0.249357</v>
+      </c>
+      <c r="Z30">
+        <v>100</v>
+      </c>
+      <c r="AA30">
+        <v>0.30470199999999997</v>
+      </c>
+      <c r="AB30">
+        <v>100</v>
+      </c>
+      <c r="AC30">
+        <v>0.44092200000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>500</v>
+      </c>
+      <c r="W31">
+        <v>5.768402</v>
+      </c>
+      <c r="X31">
+        <v>500</v>
+      </c>
+      <c r="Y31">
+        <v>9.6440830000000002</v>
+      </c>
+      <c r="Z31">
+        <v>500</v>
+      </c>
+      <c r="AA31">
+        <v>15.760434</v>
+      </c>
+      <c r="AB31">
+        <v>500</v>
+      </c>
+      <c r="AC31">
+        <v>25.499402999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>1000</v>
+      </c>
+      <c r="W32">
+        <v>25.685136999999997</v>
+      </c>
+      <c r="X32">
+        <v>1000</v>
+      </c>
+      <c r="Y32">
+        <v>50.292163000000002</v>
+      </c>
+      <c r="Z32">
+        <v>1000</v>
+      </c>
+      <c r="AA32">
+        <v>82.931964999999991</v>
+      </c>
+      <c r="AB32">
+        <v>1000</v>
+      </c>
+      <c r="AC32">
+        <v>95.935841999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB53" s="8"/>
+    </row>
+    <row r="54" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>10</v>
+      </c>
+      <c r="V54" t="s">
+        <v>11</v>
+      </c>
+      <c r="W54" t="s">
+        <v>10</v>
+      </c>
+      <c r="X54" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U55" t="s">
+        <v>9</v>
+      </c>
+      <c r="V55" t="s">
+        <v>12</v>
+      </c>
+      <c r="W55" t="s">
+        <v>9</v>
+      </c>
+      <c r="X55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="V56">
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="W56">
+        <v>10</v>
+      </c>
+      <c r="X56">
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="Y56">
+        <v>10</v>
+      </c>
+      <c r="Z56">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="AA56">
+        <v>10</v>
+      </c>
+      <c r="AB56">
+        <v>7.9299999999999995E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>50</v>
+      </c>
+      <c r="V57">
+        <v>5.9228999999999997E-2</v>
+      </c>
+      <c r="W57">
+        <v>50</v>
+      </c>
+      <c r="X57">
+        <v>5.9264000000000004E-2</v>
+      </c>
+      <c r="Y57">
+        <v>50</v>
+      </c>
+      <c r="Z57">
+        <v>7.8215999999999994E-2</v>
+      </c>
+      <c r="AA57">
+        <v>50</v>
+      </c>
+      <c r="AB57">
+        <v>7.5646000000000005E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>100</v>
+      </c>
+      <c r="V58">
+        <v>0.194378</v>
+      </c>
+      <c r="W58">
+        <v>100</v>
+      </c>
+      <c r="X58">
+        <v>0.28234900000000002</v>
+      </c>
+      <c r="Y58">
+        <v>100</v>
+      </c>
+      <c r="Z58">
+        <v>0.23804499999999998</v>
+      </c>
+      <c r="AA58">
+        <v>100</v>
+      </c>
+      <c r="AB58">
+        <v>0.26816099999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>500</v>
+      </c>
+      <c r="V59">
+        <v>5.6528400000000003</v>
+      </c>
+      <c r="W59">
+        <v>500</v>
+      </c>
+      <c r="X59">
+        <v>6.1312349999999993</v>
+      </c>
+      <c r="Y59">
+        <v>500</v>
+      </c>
+      <c r="Z59">
+        <v>5.6656949999999995</v>
+      </c>
+      <c r="AA59">
+        <v>500</v>
+      </c>
+      <c r="AB59">
+        <v>6.0512540000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>1000</v>
+      </c>
+      <c r="V60">
+        <v>22.659103999999999</v>
+      </c>
+      <c r="W60">
+        <v>1000</v>
+      </c>
+      <c r="X60">
+        <v>22.371098000000003</v>
+      </c>
+      <c r="Y60">
+        <v>1000</v>
+      </c>
+      <c r="Z60">
+        <v>22.706848999999998</v>
+      </c>
+      <c r="AA60">
+        <v>1000</v>
+      </c>
+      <c r="AB60">
+        <v>23.549992999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="AA53:AB53"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="C14:Y14"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>